--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -70,7 +70,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DADEB9"/>
-        <bgColor rgb="00DADEB9"/>
+        <fgColor rgb="00B8E6E5"/>
+        <bgColor rgb="00B8E6E5"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,194 +109,182 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4D1D2"/>
-        <bgColor rgb="00E4D1D2"/>
+        <fgColor rgb="00C5BCEE"/>
+        <bgColor rgb="00C5BCEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C5E5E3"/>
-        <bgColor rgb="00C5E5E3"/>
+        <fgColor rgb="00DCD7BE"/>
+        <bgColor rgb="00DCD7BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9CFDA"/>
-        <bgColor rgb="00D9CFDA"/>
+        <fgColor rgb="00C5E2E2"/>
+        <bgColor rgb="00C5E2E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EECDCF"/>
-        <bgColor rgb="00EECDCF"/>
+        <fgColor rgb="00D4C9F0"/>
+        <bgColor rgb="00D4C9F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEC5B7"/>
-        <bgColor rgb="00DEC5B7"/>
+        <fgColor rgb="00D4B5D7"/>
+        <bgColor rgb="00D4B5D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBB9F0"/>
-        <bgColor rgb="00CBB9F0"/>
+        <fgColor rgb="00C6E8BB"/>
+        <bgColor rgb="00C6E8BB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4DAB9"/>
-        <bgColor rgb="00C4DAB9"/>
+        <fgColor rgb="00BAC0CD"/>
+        <bgColor rgb="00BAC0CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5EEBF"/>
-        <bgColor rgb="00D5EEBF"/>
+        <fgColor rgb="00D4CDDF"/>
+        <bgColor rgb="00D4CDDF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7CCE9"/>
-        <bgColor rgb="00B7CCE9"/>
+        <fgColor rgb="00C5BFC8"/>
+        <bgColor rgb="00C5BFC8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6CEB9"/>
-        <bgColor rgb="00C6CEB9"/>
+        <fgColor rgb="00D2BBBF"/>
+        <bgColor rgb="00D2BBBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7DDE5"/>
-        <bgColor rgb="00D7DDE5"/>
+        <fgColor rgb="00C7C0BF"/>
+        <bgColor rgb="00C7C0BF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1B6D3"/>
-        <bgColor rgb="00C1B6D3"/>
+        <fgColor rgb="00DAE4B5"/>
+        <bgColor rgb="00DAE4B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBEADB"/>
-        <bgColor rgb="00BBEADB"/>
+        <fgColor rgb="00BDE5E1"/>
+        <bgColor rgb="00BDE5E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4BAB6"/>
-        <bgColor rgb="00E4BAB6"/>
+        <fgColor rgb="00C9C4DB"/>
+        <bgColor rgb="00C9C4DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0C7B4"/>
-        <bgColor rgb="00E0C7B4"/>
+        <fgColor rgb="00EEC3F0"/>
+        <bgColor rgb="00EEC3F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8ECD3"/>
-        <bgColor rgb="00D8ECD3"/>
+        <fgColor rgb="00C0DDE9"/>
+        <bgColor rgb="00C0DDE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5DFE5"/>
-        <bgColor rgb="00D5DFE5"/>
+        <fgColor rgb="00DAE3C5"/>
+        <bgColor rgb="00DAE3C5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DBE2CC"/>
-        <bgColor rgb="00DBE2CC"/>
+        <fgColor rgb="00EDD8D0"/>
+        <bgColor rgb="00EDD8D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1B4CC"/>
-        <bgColor rgb="00E1B4CC"/>
+        <fgColor rgb="00E0D2E5"/>
+        <bgColor rgb="00E0D2E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6E9B6"/>
-        <bgColor rgb="00C6E9B6"/>
+        <fgColor rgb="00BDC5E3"/>
+        <bgColor rgb="00BDC5E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBDEEA"/>
-        <bgColor rgb="00BBDEEA"/>
+        <fgColor rgb="00C1E5E5"/>
+        <bgColor rgb="00C1E5E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFBAC9"/>
-        <bgColor rgb="00EFBAC9"/>
+        <fgColor rgb="00EEC3DB"/>
+        <bgColor rgb="00EEC3DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7DECA"/>
-        <bgColor rgb="00C7DECA"/>
+        <fgColor rgb="00EEE6D0"/>
+        <bgColor rgb="00EEE6D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DED2D3"/>
-        <bgColor rgb="00DED2D3"/>
+        <fgColor rgb="00D9D3BC"/>
+        <bgColor rgb="00D9D3BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4F0EE"/>
-        <bgColor rgb="00B4F0EE"/>
+        <fgColor rgb="00C4B4C9"/>
+        <bgColor rgb="00C4B4C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFC6D4"/>
-        <bgColor rgb="00EFC6D4"/>
+        <fgColor rgb="00F0B4D8"/>
+        <bgColor rgb="00F0B4D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8D3EF"/>
-        <bgColor rgb="00D8D3EF"/>
+        <fgColor rgb="00B5EABC"/>
+        <bgColor rgb="00B5EABC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFDAE2"/>
-        <bgColor rgb="00BFDAE2"/>
+        <fgColor rgb="00E2EFD2"/>
+        <bgColor rgb="00E2EFD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8D4B6"/>
-        <bgColor rgb="00D8D4B6"/>
+        <fgColor rgb="00C6B8CF"/>
+        <bgColor rgb="00C6B8CF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9EAEA"/>
-        <bgColor rgb="00B9EAEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEDDED"/>
-        <bgColor rgb="00DEDDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4ECC3"/>
-        <bgColor rgb="00E4ECC3"/>
+        <fgColor rgb="00E0DFE9"/>
+        <bgColor rgb="00E0DFE9"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -433,12 +421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1195,9 +1177,10 @@
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="8" t="inlineStr">
         <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
+          <t>Problem Solving with python
+(Practical)
+Animesh Roy
+L105</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -1208,21 +1191,14 @@
       <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ2" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Practical)
-Animesh Roy
-L308</t>
-        </is>
-      </c>
+      <c r="AI2" s="5" t="n"/>
+      <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
-      <c r="AL2" s="5" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
@@ -1232,11 +1208,7 @@
       <c r="AS2" s="5" t="n"/>
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
-      <c r="AV2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV2" s="5" t="n"/>
       <c r="AW2" s="5" t="n"/>
       <c r="AX2" s="5" t="n"/>
       <c r="AY2" s="5" t="n"/>
@@ -1272,7 +1244,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr">
+      <c r="L3" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
@@ -1301,10 +1273,11 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+Rajesh N S
 C002</t>
         </is>
       </c>
@@ -1398,12 +1371,12 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="9" t="inlineStr">
+      <c r="Z4" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
 Sunil P V
-C003</t>
+C002</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -1467,13 +1440,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -1495,12 +1462,12 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="12" t="inlineStr">
+      <c r="Z5" s="9" t="inlineStr">
         <is>
           <t>English Language and communication
 (Lecture)
 Rajesh N S
-C003</t>
+C002</t>
         </is>
       </c>
       <c r="AA5" s="5" t="n"/>
@@ -1564,13 +1531,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
@@ -1592,14 +1553,7 @@
       </c>
       <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
-      <c r="Z6" s="12" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-Rajesh N S
-C002</t>
-        </is>
-      </c>
+      <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="5" t="n"/>
@@ -1608,11 +1562,7 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
-      <c r="AI6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI6" s="5" t="n"/>
       <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
@@ -1635,39 +1585,33 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AI3"/>
-    <mergeCell ref="L5:T5"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="AI2"/>
     <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="AI5"/>
-    <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="Z2:AK2"/>
     <mergeCell ref="U4"/>
     <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:T4"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="AL2"/>
     <mergeCell ref="H4"/>
     <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AV2"/>
-    <mergeCell ref="AI6"/>
-    <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AI4"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="AJ2:AU2"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
@@ -2030,10 +1974,10 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
-(Elective)
+(A)
 C003</t>
         </is>
       </c>
@@ -2050,12 +1994,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="23" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
 Dibyajyothi
-C304</t>
+C404</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -2085,14 +2029,7 @@
       </c>
       <c r="AD2" s="5" t="n"/>
       <c r="AE2" s="5" t="n"/>
-      <c r="AF2" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Girish Revadigar
-C104</t>
-        </is>
-      </c>
+      <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
       <c r="AI2" s="5" t="n"/>
@@ -2101,11 +2038,7 @@
       <c r="AL2" s="5" t="n"/>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO2" s="5" t="n"/>
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
@@ -2129,10 +2062,10 @@
       </c>
       <c r="B3" s="23" t="inlineStr">
         <is>
-          <t>Computer Networks
-(Practical)
-Dibyajyothi
-L208</t>
+          <t>Statistics for CS
+(Lecture)
+Pavan Kumar
+C407</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -2143,36 +2076,47 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Tutorial)
+Dibyajyothi
+C405</t>
+        </is>
+      </c>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="O3" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-Pavan Kumar
-C404</t>
-        </is>
-      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="S3" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+Girish Revadigar
+C405</t>
+        </is>
+      </c>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="Y3" s="5" t="n"/>
+      <c r="X3" s="5" t="n"/>
+      <c r="Y3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
@@ -2214,11 +2158,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
-        <is>
-          <t>Basket (A)
-(Elective)
-C002</t>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+Pavan Kumar
+C408</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -2226,50 +2171,39 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="I4" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Dibyajyothi
-C101</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
+Girish Revadigar
+C407</t>
+        </is>
+      </c>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="S4" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-Pavan Kumar
-C408</t>
-        </is>
-      </c>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="5" t="n"/>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
@@ -2311,11 +2245,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>Basket (B)
-(Elective)
-C002</t>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+Pavan Kumar
+C406</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -2323,22 +2258,22 @@
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I5" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Dibyajyothi
+C406</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-Dibyajyothi
-C204</t>
-        </is>
-      </c>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -2349,14 +2284,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S5" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Girish Revadigar
-C402</t>
-        </is>
-      </c>
+      <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
       <c r="U5" s="5" t="n"/>
       <c r="V5" s="5" t="n"/>
@@ -2365,11 +2293,7 @@
       <c r="Y5" s="5" t="n"/>
       <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
-      <c r="AB5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="7" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -2408,11 +2332,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
-        <is>
-          <t>Basket (B)
-(Elective)
-C002</t>
+      <c r="B6" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+Dibyajyothi
+L106</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -2423,50 +2348,39 @@
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="O6" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Pavan Kumar
-C304</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
+Girish Revadigar
+C406</t>
+        </is>
+      </c>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
       <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="V6" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Girish Revadigar
-C303</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="7" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -2500,39 +2414,33 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="27">
     <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="N6"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="K6"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="H5"/>
     <mergeCell ref="R5"/>
-    <mergeCell ref="AF2:AN2"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="AO2"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="AB5"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="Y3"/>
     <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="B6:M6"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="B4:J4"/>
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="X3"/>
-    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="X6"/>
     <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="K2"/>
+    <mergeCell ref="R3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2893,12 +2801,11 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-Sunil C K
-C104</t>
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>Basket (A)
+(A)
+C002</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -2917,12 +2824,12 @@
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
-      <c r="O2" s="23" t="inlineStr">
+      <c r="O2" s="22" t="inlineStr">
         <is>
           <t>Computer Networks
 (Tutorial)
 Animesh Roy
-C406</t>
+C403</t>
         </is>
       </c>
       <c r="P2" s="5" t="n"/>
@@ -2949,7 +2856,14 @@
       </c>
       <c r="AD2" s="5" t="n"/>
       <c r="AE2" s="5" t="n"/>
-      <c r="AF2" s="5" t="n"/>
+      <c r="AF2" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+Krishnendu
+C404</t>
+        </is>
+      </c>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
       <c r="AI2" s="5" t="n"/>
@@ -2958,7 +2872,11 @@
       <c r="AL2" s="5" t="n"/>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
-      <c r="AO2" s="5" t="n"/>
+      <c r="AO2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
@@ -2980,14 +2898,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-Animesh Roy
-L207</t>
-        </is>
-      </c>
+      <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="5" t="n"/>
       <c r="E3" s="5" t="n"/>
@@ -2996,32 +2907,21 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="O3" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Krishnendu
-C403</t>
-        </is>
-      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
       <c r="X3" s="5" t="n"/>
@@ -3046,7 +2946,14 @@
       <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
-      <c r="AP3" s="5" t="n"/>
+      <c r="AP3" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+Animesh Roy
+L105</t>
+        </is>
+      </c>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
       <c r="AS3" s="5" t="n"/>
@@ -3058,7 +2965,11 @@
       <c r="AY3" s="5" t="n"/>
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
-      <c r="BB3" s="5" t="n"/>
+      <c r="BB3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
@@ -3067,35 +2978,28 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-Animesh Roy
-C203</t>
-        </is>
-      </c>
+      <c r="B4" s="5" t="n"/>
       <c r="C4" s="5" t="n"/>
       <c r="D4" s="5" t="n"/>
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I4" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+Sunil C K
+C404</t>
+        </is>
+      </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-Sunil C K
-C406</t>
-        </is>
-      </c>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
@@ -3106,7 +3010,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S4" s="5" t="n"/>
+      <c r="S4" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+Krishnendu
+C404</t>
+        </is>
+      </c>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
@@ -3115,7 +3026,11 @@
       <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="5" t="n"/>
       <c r="AA4" s="5" t="n"/>
-      <c r="AB4" s="5" t="n"/>
+      <c r="AB4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AC4" s="7" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -3154,12 +3069,11 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Krishnendu
-C003</t>
+      <c r="B5" s="24" t="inlineStr">
+        <is>
+          <t>Basket (B)
+(B)
+C002</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -3167,18 +3081,30 @@
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I5" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+Sunil C K
+C407</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="5" t="n"/>
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
-      <c r="O5" s="23" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="P5" s="22" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
@@ -3186,7 +3112,6 @@
 C405</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
@@ -3194,12 +3119,12 @@
       <c r="U5" s="5" t="n"/>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="5" t="n"/>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="Y5" s="5" t="n"/>
+      <c r="X5" s="5" t="n"/>
+      <c r="Y5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
@@ -3241,12 +3166,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
+      <c r="B6" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
 (Lecture)
-Sunil C K
-C102</t>
+Animesh Roy
+C407</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -3262,12 +3187,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="25" t="inlineStr">
+      <c r="L6" s="21" t="inlineStr">
         <is>
           <t>Artificial Intelligence
-(Lecture)
+(Tutorial)
 Krishnendu
-C101</t>
+C403</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -3275,14 +3200,14 @@
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
       <c r="X6" s="5" t="n"/>
@@ -3297,7 +3222,14 @@
       </c>
       <c r="AD6" s="5" t="n"/>
       <c r="AE6" s="5" t="n"/>
-      <c r="AF6" s="5" t="n"/>
+      <c r="AF6" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+Sunil C K
+C404</t>
+        </is>
+      </c>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
@@ -3306,7 +3238,11 @@
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
-      <c r="AO6" s="5" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
@@ -3323,30 +3259,36 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="O5:W5"/>
+  <mergeCells count="31">
     <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF6:AN6"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="K4"/>
+    <mergeCell ref="AO6"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="K5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="AF2:AN2"/>
+    <mergeCell ref="AO2"/>
+    <mergeCell ref="BB3"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="B6:J6"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="I4:Q4"/>
     <mergeCell ref="O2:T2"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="L6:Q6"/>
     <mergeCell ref="R4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="N3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AB4"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="R6"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="U3"/>
+    <mergeCell ref="S4:AA4"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="Y5"/>
+    <mergeCell ref="AP3:BA3"/>
     <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="X5"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
@@ -3708,12 +3650,11 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-Dibyajyothi
-L207</t>
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>Basket (A)
+(A)
+C003</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -3724,22 +3665,22 @@
       <c r="H2" s="5" t="n"/>
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Dibyajyothi
+C404</t>
+        </is>
+      </c>
       <c r="M2" s="5" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="O2" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Girish Revadigar
-C304</t>
-        </is>
-      </c>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
       <c r="R2" s="5" t="n"/>
@@ -3797,10 +3738,10 @@
       </c>
       <c r="B3" s="23" t="inlineStr">
         <is>
-          <t>Computer Networks
+          <t>Statistics for CS
 (Lecture)
-Dibyajyothi
-C402</t>
+Pavan Kumar
+C406</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -3816,12 +3757,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
+      <c r="L3" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
 (Tutorial)
-Pavan Kumar
-C102</t>
+Dibyajyothi
+C405</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -3834,7 +3775,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n"/>
+      <c r="S3" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+Girish Revadigar
+C405</t>
+        </is>
+      </c>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
@@ -3843,7 +3791,11 @@
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
-      <c r="AB3" s="5" t="n"/>
+      <c r="AB3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AC3" s="7" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -3884,10 +3836,10 @@
       </c>
       <c r="B4" s="23" t="inlineStr">
         <is>
-          <t>Computer Networks
+          <t>Statistics for CS
 (Lecture)
-Dibyajyothi
-C403</t>
+Pavan Kumar
+C405</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -3903,7 +3855,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="25" t="inlineStr">
+      <c r="L4" s="21" t="inlineStr">
         <is>
           <t>Artificial Intelligence
 (Lecture)
@@ -3969,12 +3921,11 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-Dibyajyothi
-C205</t>
+      <c r="B5" s="24" t="inlineStr">
+        <is>
+          <t>Basket (B)
+(B)
+C003</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -3987,12 +3938,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I5" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-Pavan Kumar
-C101</t>
+      <c r="I5" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+Dibyajyothi
+L106</t>
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
@@ -4003,14 +3954,14 @@
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="5" t="n"/>
       <c r="X5" s="5" t="n"/>
@@ -4056,12 +4007,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="24" t="inlineStr">
+      <c r="B6" s="23" t="inlineStr">
         <is>
           <t>Statistics for CS
-(Lecture)
+(Tutorial)
 Pavan Kumar
-C302</t>
+C406</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -4069,39 +4020,50 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I6" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Dibyajyothi
+C406</t>
+        </is>
+      </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Girish Revadigar
-C408</t>
-        </is>
-      </c>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
-      <c r="S6" s="5" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="S6" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+Girish Revadigar
+C403</t>
+        </is>
+      </c>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
       <c r="X6" s="5" t="n"/>
-      <c r="Y6" s="5" t="n"/>
+      <c r="Y6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
@@ -4138,32 +4100,36 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B2:M2"/>
+  <mergeCells count="29">
     <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="U5"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="K4"/>
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="H5"/>
-    <mergeCell ref="R5"/>
-    <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="AB3"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="U6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="R6"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="N2"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="S3:AA3"/>
     <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="Y6"/>
+    <mergeCell ref="K2"/>
     <mergeCell ref="R3"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7263,12 +7229,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Practical)
 Animesh Roy
-L206</t>
+L105</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -7302,7 +7268,14 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="5" t="n"/>
+      <c r="Z2" s="11" t="inlineStr">
+        <is>
+          <t>Statistics
+(Lecture)
+Ramesh Athe
+C403</t>
+        </is>
+      </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
       <c r="AC2" s="5" t="n"/>
@@ -7311,7 +7284,11 @@
       <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
-      <c r="AI2" s="5" t="n"/>
+      <c r="AI2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
@@ -7339,12 +7316,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
 Animesh Roy
-C404</t>
+C403</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -7378,12 +7355,12 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="13" t="inlineStr">
+      <c r="Z3" s="11" t="inlineStr">
         <is>
           <t>Statistics
-(Tutorial)
+(Lecture)
 Ramesh Athe
-C101</t>
+C403</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -7391,14 +7368,14 @@
       <c r="AC3" s="5" t="n"/>
       <c r="AD3" s="5" t="n"/>
       <c r="AE3" s="5" t="n"/>
-      <c r="AF3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="5" t="n"/>
+      <c r="AI3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
@@ -7426,12 +7403,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-Animesh Roy
-C405</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Statistics
+(Tutorial)
+Ramesh Athe
+C403</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -7439,35 +7416,35 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Tutorial)
+Abdul Wahid
+C403</t>
+        </is>
+      </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="14" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-Abdul Wahid
-C205</t>
-        </is>
-      </c>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
       <c r="R4" s="5" t="n"/>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="7" t="inlineStr">
         <is>
@@ -7476,7 +7453,14 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="5" t="n"/>
+      <c r="Z4" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
+        </is>
+      </c>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
       <c r="AC4" s="5" t="n"/>
@@ -7485,7 +7469,11 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
-      <c r="AI4" s="5" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
       <c r="AL4" s="5" t="n"/>
@@ -7513,12 +7501,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>Statistics
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
 (Lecture)
-Ramesh Athe
-C202</t>
+Abdul Wahid
+C403</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -7534,12 +7522,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="14" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
 (Lecture)
-Abdul Wahid
-C101</t>
+Animesh Roy
+C403</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -7600,12 +7588,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Statistics
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
 (Lecture)
-Ramesh Athe
-C104</t>
+Abdul Wahid
+C403</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -7621,12 +7609,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="14" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Tutorial)
-Abdul Wahid
-C003</t>
+      <c r="L6" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -7634,14 +7622,14 @@
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="7" t="inlineStr">
         <is>
@@ -7682,30 +7670,34 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AI3"/>
     <mergeCell ref="L5:T5"/>
-    <mergeCell ref="Z3:AE3"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="K4"/>
-    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="AI2"/>
+    <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="K6"/>
+    <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="AF3"/>
+    <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
+    <mergeCell ref="I4:N4"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="L6:T6"/>
     <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="B4:J4"/>
     <mergeCell ref="N2"/>
+    <mergeCell ref="O4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="AI4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8065,12 +8057,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
 Animesh Roy
-C003</t>
+C403</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -8115,7 +8107,14 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="5" t="n"/>
+      <c r="Z2" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
+        </is>
+      </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
       <c r="AC2" s="5" t="n"/>
@@ -8124,7 +8123,11 @@
       <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
-      <c r="AI2" s="5" t="n"/>
+      <c r="AI2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
@@ -8191,12 +8194,12 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="9" t="inlineStr">
+      <c r="Z3" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Practical)
 Animesh Roy
-L307</t>
+L105</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -8326,12 +8329,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
 Animesh Roy
-C204</t>
+C403</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -8413,7 +8416,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
+        </is>
+      </c>
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
@@ -8422,7 +8432,11 @@
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L6" s="10" t="inlineStr">
         <is>
           <t>Digital Design
@@ -8484,15 +8498,19 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="AL4"/>
     <mergeCell ref="U5"/>
+    <mergeCell ref="AI2"/>
     <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="B5:J5"/>
@@ -8867,12 +8885,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-Utkarsh K
-L105</t>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+Animesh Chaturvedi
+C403</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -8883,14 +8901,14 @@
       <c r="H2" s="5" t="n"/>
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
@@ -8919,7 +8937,7 @@
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
-      <c r="AM2" s="21" t="inlineStr">
+      <c r="AM2" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Lecture)
@@ -8954,12 +8972,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Utkarsh K
-C403</t>
+Animesh Chaturvedi
+C405</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -8975,24 +8993,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Animesh Chaturvedi
-C202</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
@@ -9017,7 +9024,7 @@
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
-      <c r="AM3" s="21" t="inlineStr">
+      <c r="AM3" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Lecture)
@@ -9052,12 +9059,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="28" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Data Handling
 (Lecture)
 Siddharth
-C302</t>
+C405</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -9073,11 +9080,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
+      <c r="L4" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
 (Lecture)
-Animesh Chaturvedi
+Utkarsh K
 C405</t>
         </is>
       </c>
@@ -9116,31 +9123,31 @@
       <c r="AK4" s="5" t="n"/>
       <c r="AL4" s="5" t="n"/>
       <c r="AM4" s="5" t="n"/>
-      <c r="AN4" s="21" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Tutorial)
-Anand B
-C004</t>
-        </is>
-      </c>
+      <c r="AN4" s="5" t="n"/>
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AU4" s="5" t="n"/>
+      <c r="AT4" s="5" t="n"/>
+      <c r="AU4" s="19" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Tutorial)
+Anand B
+C004</t>
+        </is>
+      </c>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
       <c r="AX4" s="5" t="n"/>
       <c r="AY4" s="5" t="n"/>
       <c r="AZ4" s="5" t="n"/>
-      <c r="BA4" s="5" t="n"/>
+      <c r="BA4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BB4" s="5" t="n"/>
       <c r="BC4" s="5" t="n"/>
     </row>
@@ -9150,12 +9157,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Data Handling
 (Practical)
 Siddharth
-L208</t>
+L105</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -9174,14 +9181,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O5" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Animesh Chaturvedi
-C304</t>
-        </is>
-      </c>
+      <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
@@ -9190,11 +9190,7 @@
       <c r="U5" s="5" t="n"/>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="5" t="n"/>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
       <c r="Z5" s="7" t="inlineStr">
         <is>
@@ -9203,7 +9199,14 @@
       </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="5" t="n"/>
+      <c r="AC5" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+Utkarsh K
+L106</t>
+        </is>
+      </c>
       <c r="AD5" s="5" t="n"/>
       <c r="AE5" s="5" t="n"/>
       <c r="AF5" s="5" t="n"/>
@@ -9215,7 +9218,11 @@
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
-      <c r="AO5" s="5" t="n"/>
+      <c r="AO5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
@@ -9237,12 +9244,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="28" t="inlineStr">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Data Handling
 (Lecture)
 Siddharth
-C403</t>
+C405</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -9258,12 +9265,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-Utkarsh K
-C203</t>
+      <c r="L6" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+Animesh Chaturvedi
+C404</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -9271,14 +9278,14 @@
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
       <c r="X6" s="5" t="n"/>
@@ -9290,7 +9297,14 @@
       </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="5" t="n"/>
+      <c r="AC6" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Utkarsh K
+C404</t>
+        </is>
+      </c>
       <c r="AD6" s="5" t="n"/>
       <c r="AE6" s="5" t="n"/>
       <c r="AF6" s="5" t="n"/>
@@ -9299,7 +9313,11 @@
       <c r="AI6" s="5" t="n"/>
       <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
-      <c r="AL6" s="5" t="n"/>
+      <c r="AL6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
       <c r="AO6" s="5" t="n"/>
@@ -9320,8 +9338,8 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="BA4"/>
+    <mergeCell ref="AC5:AN5"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="K4"/>
     <mergeCell ref="L4:T4"/>
@@ -9331,24 +9349,24 @@
     <mergeCell ref="U4"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="U6"/>
+    <mergeCell ref="AL6"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="AC6:AK6"/>
     <mergeCell ref="AM3:AU3"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="AV3"/>
     <mergeCell ref="AV2"/>
+    <mergeCell ref="R6"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="N2"/>
     <mergeCell ref="N5"/>
     <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="X5"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AT4"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="AN4:AS4"/>
-    <mergeCell ref="R3"/>
+    <mergeCell ref="AO5"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9729,14 +9747,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-Sunil C K
-C002</t>
-        </is>
-      </c>
+      <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
@@ -9745,11 +9756,7 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="7" t="inlineStr">
         <is>
@@ -9758,13 +9765,7 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="Z2" s="5" t="n"/>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
       <c r="AC2" s="5" t="n"/>
@@ -9773,18 +9774,21 @@
       <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI2" s="5" t="n"/>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
-      <c r="AP2" s="5" t="n"/>
+      <c r="AP2" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Practical)
+Animesh Roy
+L105</t>
+        </is>
+      </c>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
       <c r="AS2" s="5" t="n"/>
@@ -9796,7 +9800,11 @@
       <c r="AY2" s="5" t="n"/>
       <c r="AZ2" s="5" t="n"/>
       <c r="BA2" s="5" t="n"/>
-      <c r="BB2" s="5" t="n"/>
+      <c r="BB2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BC2" s="5" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
@@ -9826,7 +9834,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n"/>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+Sunil C K
+C003</t>
+        </is>
+      </c>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
@@ -9835,7 +9850,11 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="7" t="inlineStr">
         <is>
@@ -9844,13 +9863,7 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="5" t="n"/>
@@ -9859,22 +9872,18 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ3" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Practical)
-Animesh Roy
-L107</t>
-        </is>
-      </c>
+      <c r="AI3" s="5" t="n"/>
+      <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
-      <c r="AM3" s="5" t="n"/>
+      <c r="AM3" s="9" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+Rajesh N S
+C002</t>
+        </is>
+      </c>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
       <c r="AP3" s="5" t="n"/>
@@ -9952,12 +9961,12 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="9" t="inlineStr">
+      <c r="Z4" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
 Sunil C K
-C002</t>
+C003</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -10021,13 +10030,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -10062,7 +10065,7 @@
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
-      <c r="AM5" s="12" t="inlineStr">
+      <c r="AM5" s="9" t="inlineStr">
         <is>
           <t>English Language and communication
 (Lecture)
@@ -10118,13 +10121,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
@@ -10159,14 +10156,7 @@
       <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
-      <c r="AM6" s="12" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-Rajesh N S
-C002</t>
-        </is>
-      </c>
+      <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
       <c r="AO6" s="5" t="n"/>
       <c r="AP6" s="5" t="n"/>
@@ -10175,11 +10165,7 @@
       <c r="AS6" s="5" t="n"/>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
-      <c r="AV6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV6" s="5" t="n"/>
       <c r="AW6" s="5" t="n"/>
       <c r="AX6" s="5" t="n"/>
       <c r="AY6" s="5" t="n"/>
@@ -10189,21 +10175,16 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AV6"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="AI2"/>
     <mergeCell ref="AM5:AU5"/>
-    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="BB2"/>
     <mergeCell ref="AV5"/>
-    <mergeCell ref="AJ3:AU3"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="U4"/>
+    <mergeCell ref="AP2:BA2"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:T4"/>
@@ -10211,19 +10192,18 @@
     <mergeCell ref="H4"/>
     <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AM6:AU6"/>
+    <mergeCell ref="AM3:AU3"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="AV3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AI4"/>
+    <mergeCell ref="U3"/>
     <mergeCell ref="K2"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10584,12 +10564,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Utkarsh K
-C302</t>
+Animesh Chaturvedi
+C404</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -10605,24 +10585,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Animesh Chaturvedi
-C101</t>
-        </is>
-      </c>
+      <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
       <c r="U2" s="5" t="n"/>
@@ -10637,12 +10606,12 @@
       </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="29" t="inlineStr">
+      <c r="AC2" s="28" t="inlineStr">
         <is>
           <t>Statistical Programming
 (Practical)
 Ramesh Athe
-L307</t>
+L106</t>
         </is>
       </c>
       <c r="AD2" s="5" t="n"/>
@@ -10682,7 +10651,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="28" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Data Handling
 (Lecture)
@@ -10703,17 +10672,17 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Animesh Chaturvedi
-C302</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
+      <c r="O3" s="28" t="inlineStr">
+        <is>
+          <t>Statistical Programming
+(Tutorial)
+Ramesh Athe
+C404</t>
+        </is>
+      </c>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
       <c r="R3" s="5" t="n"/>
@@ -10735,7 +10704,14 @@
       </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="5" t="n"/>
+      <c r="AC3" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+Utkarsh K
+L106</t>
+        </is>
+      </c>
       <c r="AD3" s="5" t="n"/>
       <c r="AE3" s="5" t="n"/>
       <c r="AF3" s="5" t="n"/>
@@ -10747,19 +10723,16 @@
       <c r="AL3" s="5" t="n"/>
       <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
-      <c r="AO3" s="5" t="n"/>
+      <c r="AO3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
       <c r="AS3" s="5" t="n"/>
-      <c r="AT3" s="17" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-Somen B
-C004</t>
-        </is>
-      </c>
+      <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
       <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
@@ -10768,11 +10741,7 @@
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
       <c r="BB3" s="5" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -10780,12 +10749,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Animesh Chaturvedi
-C104</t>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>Data Handling
+(Practical)
+Siddharth
+L106</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -10796,32 +10765,32 @@
       <c r="H4" s="5" t="n"/>
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="29" t="inlineStr">
-        <is>
-          <t>Statistical Programming
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="O4" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Tutorial)
-Ramesh Athe
-C402</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
+Animesh Chaturvedi
+C403</t>
+        </is>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R4" s="5" t="n"/>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
@@ -10833,12 +10802,12 @@
       </c>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
-      <c r="AC4" s="28" t="inlineStr">
-        <is>
-          <t>Data Handling
-(Practical)
-Siddharth
-L107</t>
+      <c r="AC4" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Utkarsh K
+C403</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -10849,14 +10818,14 @@
       <c r="AI4" s="5" t="n"/>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
-      <c r="AL4" s="5" t="n"/>
+      <c r="AL4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM4" s="5" t="n"/>
       <c r="AN4" s="5" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
@@ -10878,12 +10847,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-Utkarsh K
-L106</t>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>Data Handling
+(Lecture)
+Siddharth
+C405</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -10894,21 +10863,32 @@
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Utkarsh K
+C403</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="5" t="n"/>
       <c r="X5" s="5" t="n"/>
@@ -10927,14 +10907,7 @@
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
-      <c r="AJ5" s="17" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-Somen B
-C004</t>
-        </is>
-      </c>
+      <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
@@ -10943,12 +10916,15 @@
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
-      <c r="AS5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT5" s="5" t="n"/>
+      <c r="AS5" s="5" t="n"/>
+      <c r="AT5" s="14" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus
+(Lecture)
+Somen B
+C004</t>
+        </is>
+      </c>
       <c r="AU5" s="5" t="n"/>
       <c r="AV5" s="5" t="n"/>
       <c r="AW5" s="5" t="n"/>
@@ -10957,7 +10933,11 @@
       <c r="AZ5" s="5" t="n"/>
       <c r="BA5" s="5" t="n"/>
       <c r="BB5" s="5" t="n"/>
-      <c r="BC5" s="5" t="n"/>
+      <c r="BC5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -10965,12 +10945,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="28" t="inlineStr">
-        <is>
-          <t>Data Handling
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Siddharth
-C304</t>
+Animesh Chaturvedi
+C404</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -10986,14 +10966,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-Utkarsh K
-C407</t>
-        </is>
-      </c>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
@@ -11002,11 +10975,7 @@
       <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
       <c r="X6" s="5" t="n"/>
@@ -11025,28 +10994,24 @@
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
-      <c r="AJ6" s="17" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Tutorial)
-Somen B
-C004</t>
-        </is>
-      </c>
+      <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
       <c r="AO6" s="5" t="n"/>
-      <c r="AP6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
       <c r="AS6" s="5" t="n"/>
-      <c r="AT6" s="5" t="n"/>
+      <c r="AT6" s="14" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus
+(Lecture)
+Somen B
+C004</t>
+        </is>
+      </c>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
       <c r="AW6" s="5" t="n"/>
@@ -11055,43 +11020,45 @@
       <c r="AZ6" s="5" t="n"/>
       <c r="BA6" s="5" t="n"/>
       <c r="BB6" s="5" t="n"/>
-      <c r="BC6" s="5" t="n"/>
+      <c r="BC6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="AO4"/>
-    <mergeCell ref="R2"/>
-    <mergeCell ref="L3:T3"/>
+  <mergeCells count="31">
+    <mergeCell ref="BC5"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="AT5:BB5"/>
+    <mergeCell ref="AL4"/>
+    <mergeCell ref="U5"/>
     <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="AC4:AN4"/>
-    <mergeCell ref="K4"/>
+    <mergeCell ref="AC4:AK4"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AJ6:AO6"/>
-    <mergeCell ref="AS5"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="N4"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AO2"/>
-    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="U6"/>
+    <mergeCell ref="BC6"/>
+    <mergeCell ref="K5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="AC2:AN2"/>
-    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="AO3"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="N5"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="B4:M4"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="AT6:BB6"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="BC3"/>
-    <mergeCell ref="AP6"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AT3:BB3"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="AC3:AN3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11451,12 +11418,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Practical)
 Shirshendu Layek
-L307</t>
+L107</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -11475,11 +11442,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O2" s="31" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
+      <c r="O2" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
 (Lecture)
-Animesh Chaturvedi
+Siddharth
 C406</t>
         </is>
       </c>
@@ -11538,12 +11505,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C104</t>
+C101</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -11559,17 +11526,17 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-Siddharth
-C406</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
+      <c r="O3" s="30" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Tutorial)
+Animesh Chaturvedi
+C406</t>
+        </is>
+      </c>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
       <c r="R3" s="5" t="n"/>
@@ -11625,12 +11592,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="30" t="inlineStr">
+      <c r="B4" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C204</t>
+C101</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -11649,7 +11616,14 @@
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
+      <c r="O4" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+Siddharth
+L106</t>
+        </is>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
       <c r="R4" s="5" t="n"/>
@@ -11661,7 +11635,11 @@
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="5" t="n"/>
-      <c r="AA4" s="5" t="n"/>
+      <c r="AA4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AB4" s="5" t="n"/>
       <c r="AC4" s="7" t="inlineStr">
         <is>
@@ -11670,14 +11648,7 @@
       </c>
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
-      <c r="AF4" s="31" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-Animesh Chaturvedi
-C204</t>
-        </is>
-      </c>
+      <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
       <c r="AI4" s="5" t="n"/>
@@ -11686,11 +11657,7 @@
       <c r="AL4" s="5" t="n"/>
       <c r="AM4" s="5" t="n"/>
       <c r="AN4" s="5" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
@@ -11712,12 +11679,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="30" t="inlineStr">
+      <c r="B5" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Tutorial)
 Shirshendu Layek
-C003</t>
+C407</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -11730,7 +11697,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I5" s="5" t="n"/>
+      <c r="I5" s="30" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+Animesh Chaturvedi
+C407</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
       <c r="L5" s="5" t="n"/>
@@ -11739,12 +11713,9 @@
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-Siddharth
-C202</t>
+      <c r="R5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
         </is>
       </c>
       <c r="S5" s="5" t="n"/>
@@ -11755,11 +11726,7 @@
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
       <c r="Z5" s="5" t="n"/>
-      <c r="AA5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="7" t="inlineStr">
         <is>
@@ -11799,24 +11766,13 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Tutorial)
-Animesh Chaturvedi
-C202</t>
-        </is>
-      </c>
+      <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
       <c r="K6" s="5" t="n"/>
@@ -11826,9 +11782,9 @@
       <c r="O6" s="27" t="inlineStr">
         <is>
           <t>Machine Learning
-(Practical)
+(Lecture)
 Siddharth
-L308</t>
+C407</t>
         </is>
       </c>
       <c r="P6" s="5" t="n"/>
@@ -11839,14 +11795,14 @@
       <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
-      <c r="AA6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="7" t="inlineStr">
         <is>
@@ -11855,7 +11811,14 @@
       </c>
       <c r="AD6" s="5" t="n"/>
       <c r="AE6" s="5" t="n"/>
-      <c r="AF6" s="5" t="n"/>
+      <c r="AF6" s="30" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+Animesh Chaturvedi
+C405</t>
+        </is>
+      </c>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
@@ -11864,7 +11827,11 @@
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
-      <c r="AO6" s="5" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
@@ -11884,29 +11851,29 @@
   <mergeCells count="25">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AO4"/>
+    <mergeCell ref="AF6:AN6"/>
     <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AO6"/>
     <mergeCell ref="K4"/>
     <mergeCell ref="H5"/>
+    <mergeCell ref="R5"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AF4:AN4"/>
+    <mergeCell ref="I5:Q5"/>
     <mergeCell ref="X2"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="O2:W2"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="AA6"/>
-    <mergeCell ref="R5:Z5"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="AA5"/>
+    <mergeCell ref="O3:T3"/>
     <mergeCell ref="N2"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="O6:Z6"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="AA4"/>
+    <mergeCell ref="X6"/>
     <mergeCell ref="U3"/>
     <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="L3:T3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12266,12 +12233,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Practical)
 Shirshendu Layek
-L208</t>
+L105</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -12290,7 +12257,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n"/>
+      <c r="O2" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Siddharth
+C405</t>
+        </is>
+      </c>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
       <c r="R2" s="5" t="n"/>
@@ -12299,7 +12273,11 @@
       <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
-      <c r="X2" s="5" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="5" t="n"/>
       <c r="AA2" s="5" t="n"/>
@@ -12311,14 +12289,7 @@
       </c>
       <c r="AD2" s="5" t="n"/>
       <c r="AE2" s="5" t="n"/>
-      <c r="AF2" s="31" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-Animesh Chaturvedi
-C104</t>
-        </is>
-      </c>
+      <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
       <c r="AI2" s="5" t="n"/>
@@ -12327,11 +12298,7 @@
       <c r="AL2" s="5" t="n"/>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO2" s="5" t="n"/>
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
@@ -12353,12 +12320,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C305</t>
+C407</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -12374,30 +12341,30 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n"/>
+      <c r="L3" s="30" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Tutorial)
+Animesh Chaturvedi
+C406</t>
+        </is>
+      </c>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
-      <c r="O3" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-Siddharth
-C405</t>
-        </is>
-      </c>
+      <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
@@ -12440,12 +12407,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="30" t="inlineStr">
+      <c r="B4" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C101</t>
+C406</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -12464,14 +12431,7 @@
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="31" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-Animesh Chaturvedi
-C304</t>
-        </is>
-      </c>
+      <c r="O4" s="5" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
       <c r="R4" s="5" t="n"/>
@@ -12480,11 +12440,7 @@
       <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
-      <c r="X4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="5" t="n"/>
       <c r="AA4" s="5" t="n"/>
@@ -12496,7 +12452,14 @@
       </c>
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
-      <c r="AF4" s="5" t="n"/>
+      <c r="AF4" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+Siddharth
+L105</t>
+        </is>
+      </c>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
       <c r="AI4" s="5" t="n"/>
@@ -12508,7 +12471,11 @@
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
-      <c r="AR4" s="5" t="n"/>
+      <c r="AR4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AS4" s="5" t="n"/>
       <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
@@ -12527,12 +12494,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="30" t="inlineStr">
+      <c r="B5" s="29" t="inlineStr">
         <is>
           <t>Computer Communication
 (Tutorial)
 Shirshendu Layek
-C303</t>
+C407</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -12545,11 +12512,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
+      <c r="I5" s="30" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
 (Lecture)
-Siddharth
+Animesh Chaturvedi
 C408</t>
         </is>
       </c>
@@ -12614,12 +12581,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Tutorial)
-Animesh Chaturvedi
-C407</t>
+      <c r="B6" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Siddharth
+C408</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -12627,23 +12594,23 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
-      <c r="O6" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-Siddharth
-L308</t>
+      <c r="O6" s="30" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+Animesh Chaturvedi
+C404</t>
         </is>
       </c>
       <c r="P6" s="5" t="n"/>
@@ -12654,14 +12621,14 @@
       <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
-      <c r="AA6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="7" t="inlineStr">
         <is>
@@ -12699,29 +12666,29 @@
   <mergeCells count="25">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="X4"/>
-    <mergeCell ref="O4:W4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="K4"/>
+    <mergeCell ref="K6"/>
     <mergeCell ref="H5"/>
     <mergeCell ref="R5"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AF2:AN2"/>
     <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="AO2"/>
+    <mergeCell ref="X2"/>
     <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="AA6"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="N2"/>
-    <mergeCell ref="O3:W3"/>
-    <mergeCell ref="X3"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="O6:Z6"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="AR4"/>
+    <mergeCell ref="X6"/>
     <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="AF4:AQ4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14451,14 +14418,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-Girish Revadigar
-C104</t>
-        </is>
-      </c>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="5" t="n"/>
@@ -14467,12 +14427,8 @@
       <c r="H2" s="5" t="n"/>
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="13" t="inlineStr">
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -14501,7 +14457,14 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="5" t="n"/>
+      <c r="Z2" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving
+(Practical)
+Manjunath
+L106</t>
+        </is>
+      </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
       <c r="AC2" s="5" t="n"/>
@@ -14513,7 +14476,11 @@
       <c r="AI2" s="5" t="n"/>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
-      <c r="AL2" s="5" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
@@ -14538,12 +14505,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving
 (Lecture)
-Girish Revadigar
-C408</t>
+Manjunath
+C404</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -14559,7 +14526,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="13" t="inlineStr">
+      <c r="L3" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -14625,12 +14592,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Lecture)
-Manjunath
-C403</t>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Tutorial)
+Girish Revadigar
+C404</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -14638,21 +14605,32 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I4" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C404</t>
+        </is>
+      </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K4" s="5" t="n"/>
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="5" t="n"/>
+      <c r="R4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="5" t="n"/>
@@ -14664,7 +14642,7 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="13" t="inlineStr">
+      <c r="Z4" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Tutorial)
@@ -14712,12 +14690,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Practical)
-Manjunath
-L206</t>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Lecture)
+Girish Revadigar
+C404</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -14728,21 +14706,32 @@
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving
+(Lecture)
+Manjunath
+C404</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="7" t="inlineStr">
         <is>
@@ -14788,12 +14777,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
 (Lecture)
-Manjunath
-C203</t>
+Girish Revadigar
+C404</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -14809,24 +14798,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="14" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Tutorial)
-Girish Revadigar
-C405</t>
-        </is>
-      </c>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
       <c r="U6" s="5" t="n"/>
@@ -14838,7 +14816,14 @@
       </c>
       <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
-      <c r="Z6" s="5" t="n"/>
+      <c r="Z6" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
+        </is>
+      </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="5" t="n"/>
@@ -14847,7 +14832,11 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
-      <c r="AI6" s="5" t="n"/>
+      <c r="AI6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
@@ -14870,30 +14859,34 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="K4"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="Z2:AK2"/>
+    <mergeCell ref="K5"/>
     <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AL2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="AF4"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="R6"/>
+    <mergeCell ref="AI6"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="N5"/>
+    <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="K2"/>
     <mergeCell ref="L3:T3"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15340,12 +15333,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Problem Solving
 (Lecture)
 Manjunath
-C203</t>
+C403</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -15361,7 +15354,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n"/>
+      <c r="L3" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
+        </is>
+      </c>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
@@ -15370,7 +15370,11 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="7" t="inlineStr">
         <is>
@@ -15427,12 +15431,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Problem Solving
 (Practical)
 Manjunath
-L208</t>
+L105</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -15514,12 +15518,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Problem Solving
 (Lecture)
 Manjunath
-C002</t>
+C404</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -15650,7 +15654,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ6" s="5" t="n"/>
+      <c r="AJ6" s="25" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+Anushree Kini
+C403</t>
+        </is>
+      </c>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
@@ -15659,7 +15670,11 @@
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="5" t="n"/>
+      <c r="AS6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
@@ -15672,7 +15687,7 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AI3"/>
     <mergeCell ref="AI2"/>
@@ -15680,6 +15695,7 @@
     <mergeCell ref="AI5"/>
     <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="AJ6:AR6"/>
     <mergeCell ref="N4"/>
     <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="AM4:AR4"/>
@@ -15691,11 +15707,14 @@
     <mergeCell ref="AV2"/>
     <mergeCell ref="AI6"/>
     <mergeCell ref="B4:M4"/>
+    <mergeCell ref="AS6"/>
     <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="U3"/>
     <mergeCell ref="AJ2:AU2"/>
+    <mergeCell ref="L3:T3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16055,12 +16074,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
-(Practical)
-Pankaj Kumar
-L208</t>
+      <c r="B2" s="31" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Lecture)
+Somen B
+C404</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -16071,35 +16090,35 @@
       <c r="H2" s="5" t="n"/>
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="32" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Lecture)
+Pankaj Kumar
+C403</t>
+        </is>
+      </c>
       <c r="M2" s="5" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="O2" s="33" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-Somen B
-C302</t>
-        </is>
-      </c>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="7" t="inlineStr">
         <is>
@@ -16108,12 +16127,12 @@
       </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
+      <c r="AC2" s="33" t="inlineStr">
+        <is>
+          <t>Analog Electronics
 (Lecture)
-Deepak K T
-C403</t>
+Rajesh Kumar
+C404</t>
         </is>
       </c>
       <c r="AD2" s="5" t="n"/>
@@ -16153,12 +16172,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="32" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
 (Lecture)
-Pankaj Kumar
-C304</t>
+Somen B
+C406</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -16174,12 +16193,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="34" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Practical)
-Rajesh Kumar
-L308</t>
+      <c r="L3" s="32" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Lecture)
+Pankaj Kumar
+C403</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -16190,14 +16209,14 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="7" t="inlineStr">
         <is>
@@ -16209,9 +16228,9 @@
       <c r="AC3" s="27" t="inlineStr">
         <is>
           <t>Machine Learning
-(Tutorial)
+(Lecture)
 Deepak K T
-C408</t>
+C404</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -16219,14 +16238,14 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
-      <c r="AL3" s="5" t="n"/>
+      <c r="AL3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
@@ -16251,12 +16270,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="32" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
-(Lecture)
-Pankaj Kumar
-C408</t>
+      <c r="B4" s="31" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Tutorial)
+Somen B
+C406</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -16264,22 +16283,22 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I4" s="32" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Practical)
+Pankaj Kumar
+L105</t>
+        </is>
+      </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="33" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-Somen B
-C303</t>
-        </is>
-      </c>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
@@ -16304,7 +16323,14 @@
       </c>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
-      <c r="AC4" s="5" t="n"/>
+      <c r="AC4" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Deepak K T
+C404</t>
+        </is>
+      </c>
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
       <c r="AF4" s="5" t="n"/>
@@ -16313,7 +16339,11 @@
       <c r="AI4" s="5" t="n"/>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
-      <c r="AL4" s="5" t="n"/>
+      <c r="AL4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM4" s="5" t="n"/>
       <c r="AN4" s="5" t="n"/>
       <c r="AO4" s="5" t="n"/>
@@ -16325,14 +16355,7 @@
       <c r="AU4" s="5" t="n"/>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
-      <c r="AX4" s="21" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Tutorial)
-Anand B
-C004</t>
-        </is>
-      </c>
+      <c r="AX4" s="5" t="n"/>
       <c r="AY4" s="5" t="n"/>
       <c r="AZ4" s="5" t="n"/>
       <c r="BA4" s="5" t="n"/>
@@ -16345,12 +16368,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="34" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>Analog Electronics
-(Lecture)
+(Practical)
 Rajesh Kumar
-C404</t>
+L106</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -16361,32 +16384,21 @@
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="21" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-Anand B
-C004</t>
-        </is>
-      </c>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
+      <c r="N5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="5" t="n"/>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="5" t="n"/>
       <c r="X5" s="5" t="n"/>
@@ -16398,12 +16410,12 @@
       </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="33" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Tutorial)
-Somen B
-C402</t>
+      <c r="AC5" s="19" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+Anand B
+C004</t>
         </is>
       </c>
       <c r="AD5" s="5" t="n"/>
@@ -16411,14 +16423,14 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="5" t="n"/>
+      <c r="AL5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
@@ -16443,12 +16455,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="34" t="inlineStr">
+      <c r="B6" s="33" t="inlineStr">
         <is>
           <t>Analog Electronics
 (Lecture)
 Rajesh Kumar
-C407</t>
+C406</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -16464,12 +16476,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="21" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-Anand B
-C004</t>
+      <c r="L6" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Tutorial)
+Deepak K T
+C405</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -16477,14 +16489,14 @@
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
       <c r="X6" s="5" t="n"/>
@@ -16496,12 +16508,12 @@
       </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
+      <c r="AC6" s="19" t="inlineStr">
+        <is>
+          <t>Differential Equations
 (Lecture)
-Deepak K T
-C204</t>
+Anand B
+C004</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -16536,41 +16548,40 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5"/>
+  <mergeCells count="33">
+    <mergeCell ref="AL5"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="AL4"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="K4"/>
-    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="AC4:AK4"/>
+    <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="U4"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="K5"/>
     <mergeCell ref="AL6"/>
+    <mergeCell ref="I4:T4"/>
     <mergeCell ref="AL2"/>
-    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="H4"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="L6:Q6"/>
     <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="U2"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="X3"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="AL3"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16930,12 +16941,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Tutorial)
-Somen B
-C407</t>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+Deepak K T
+C405</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -16943,29 +16954,18 @@
       <c r="E2" s="5" t="n"/>
       <c r="F2" s="5" t="n"/>
       <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="I2" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Tutorial)
-Deepak K T
-C408</t>
-        </is>
-      </c>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
-      <c r="O2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
       <c r="R2" s="5" t="n"/>
@@ -16993,12 +16993,12 @@
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
-      <c r="AM2" s="35" t="inlineStr">
+      <c r="AM2" s="34" t="inlineStr">
         <is>
           <t>Random Processes
 (Lecture)
 Chinmayananda
-C205</t>
+C403</t>
         </is>
       </c>
       <c r="AN2" s="5" t="n"/>
@@ -17033,7 +17033,7 @@
           <t>Machine Learning
 (Lecture)
 Deepak K T
-C304</t>
+C405</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -17080,7 +17080,7 @@
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
-      <c r="AM3" s="35" t="inlineStr">
+      <c r="AM3" s="34" t="inlineStr">
         <is>
           <t>Random Processes
 (Lecture)
@@ -17115,12 +17115,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="35" t="inlineStr">
+      <c r="B4" s="34" t="inlineStr">
         <is>
           <t>Random Processes
 (Tutorial)
 Chinmayananda
-C406</t>
+C403</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -17133,12 +17133,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I4" s="33" t="inlineStr">
+      <c r="I4" s="31" t="inlineStr">
         <is>
           <t>Signals &amp; Systems
-(Lecture)
+(Tutorial)
 Somen B
-C204</t>
+C403</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -17146,14 +17146,14 @@
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R4" s="5" t="n"/>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="5" t="n"/>
@@ -17202,12 +17202,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="33" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>Signals &amp; Systems
 (Lecture)
 Somen B
-C202</t>
+C406</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -17223,13 +17223,24 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n"/>
+      <c r="L5" s="27" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Tutorial)
+Deepak K T
+C404</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
+      <c r="R5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
       <c r="U5" s="5" t="n"/>
@@ -17264,24 +17275,13 @@
       <c r="AT5" s="5" t="n"/>
       <c r="AU5" s="5" t="n"/>
       <c r="AV5" s="5" t="n"/>
-      <c r="AW5" s="17" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Tutorial)
-Somen B
-C004</t>
-        </is>
-      </c>
+      <c r="AW5" s="5" t="n"/>
       <c r="AX5" s="5" t="n"/>
       <c r="AY5" s="5" t="n"/>
       <c r="AZ5" s="5" t="n"/>
       <c r="BA5" s="5" t="n"/>
       <c r="BB5" s="5" t="n"/>
-      <c r="BC5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC5" s="5" t="n"/>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -17289,12 +17289,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>Machine Learning
+      <c r="B6" s="31" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
 (Lecture)
-Deepak K T
-C101</t>
+Somen B
+C405</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -17348,14 +17348,7 @@
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
       <c r="AS6" s="5" t="n"/>
-      <c r="AT6" s="17" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-Somen B
-C004</t>
-        </is>
-      </c>
+      <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
       <c r="AW6" s="5" t="n"/>
@@ -17364,30 +17357,22 @@
       <c r="AZ6" s="5" t="n"/>
       <c r="BA6" s="5" t="n"/>
       <c r="BB6" s="5" t="n"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="BC5"/>
-    <mergeCell ref="O2"/>
+  <mergeCells count="23">
+    <mergeCell ref="L5:Q5"/>
     <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AW5:BB5"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="R5"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="BC6"/>
     <mergeCell ref="K5"/>
+    <mergeCell ref="I4:N4"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="R4"/>
     <mergeCell ref="AM3:AU3"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="AV3"/>
@@ -17395,10 +17380,10 @@
     <mergeCell ref="AV2"/>
     <mergeCell ref="Z6:AB6"/>
     <mergeCell ref="AM2:AU2"/>
+    <mergeCell ref="O4"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AT6:BB6"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="H2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17758,12 +17743,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Practical)
 Sibasankar Padhy
-L106</t>
+L206</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -17782,12 +17767,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O2" s="37" t="inlineStr">
+      <c r="O2" s="36" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing
 (Lecture)
 Chandrika Kamath
-C303</t>
+C407</t>
         </is>
       </c>
       <c r="P2" s="5" t="n"/>
@@ -17845,12 +17830,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="36" t="inlineStr">
+      <c r="B3" s="35" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C003</t>
+C102</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -17866,12 +17851,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="38" t="inlineStr">
+      <c r="L3" s="37" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Tutorial)
 Jagadish D.N
-C402</t>
+C407</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -17884,12 +17869,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S3" s="37" t="inlineStr">
+      <c r="S3" s="36" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing
 (Lecture)
 Chandrika Kamath
-C403</t>
+C407</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17943,12 +17928,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="36" t="inlineStr">
+      <c r="B4" s="35" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C202</t>
+C102</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -17964,12 +17949,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="16" t="inlineStr">
+      <c r="L4" s="13" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Lecture)
 Jagdish R.B
-C202</t>
+C408</t>
         </is>
       </c>
       <c r="M4" s="5" t="n"/>
@@ -18030,12 +18015,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C102</t>
+C408</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -18051,12 +18036,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="16" t="inlineStr">
+      <c r="L5" s="13" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Lecture)
 Jagdish R.B
-C406</t>
+C408</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -18117,12 +18102,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
+      <c r="B6" s="37" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C405</t>
+C408</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -18138,12 +18123,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="16" t="inlineStr">
+      <c r="L6" s="13" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Tutorial)
 Jagdish R.B
-C204</t>
+C408</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -18586,7 +18571,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -18607,14 +18592,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="12" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-Rajesh N S
-C003</t>
-        </is>
-      </c>
+      <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
@@ -18623,11 +18601,7 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="7" t="inlineStr">
         <is>
@@ -18636,12 +18610,12 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="9" t="inlineStr">
+      <c r="Z2" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Practical)
 Animesh Roy
-L308</t>
+L105</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -18684,7 +18658,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -18707,9 +18681,9 @@
       </c>
       <c r="L3" s="9" t="inlineStr">
         <is>
-          <t>Problem Solving with python
+          <t>English Language and communication
 (Lecture)
-Sunil P V
+Rajesh N S
 C002</t>
         </is>
       </c>
@@ -18744,13 +18718,7 @@
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
       <c r="AI3" s="5" t="n"/>
-      <c r="AJ3" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
       <c r="AM3" s="5" t="n"/>
@@ -18781,7 +18749,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Tutorial)
@@ -18799,7 +18767,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I4" s="14" t="inlineStr">
+      <c r="I4" s="12" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Tutorial)
@@ -18831,7 +18799,14 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="5" t="n"/>
+      <c r="Z4" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+Sunil P V
+C002</t>
+        </is>
+      </c>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
       <c r="AC4" s="5" t="n"/>
@@ -18840,7 +18815,11 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
-      <c r="AI4" s="5" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
       <c r="AL4" s="5" t="n"/>
@@ -18851,13 +18830,7 @@
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
@@ -18866,11 +18839,7 @@
       <c r="AZ4" s="5" t="n"/>
       <c r="BA4" s="5" t="n"/>
       <c r="BB4" s="5" t="n"/>
-      <c r="BC4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC4" s="5" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -18878,7 +18847,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Lecture)
@@ -18901,10 +18870,10 @@
       </c>
       <c r="L5" s="9" t="inlineStr">
         <is>
-          <t>Problem Solving with python
+          <t>English Language and communication
 (Lecture)
-Sunil P V
-C003</t>
+Rajesh N S
+C002</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -18938,13 +18907,7 @@
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
-      <c r="AJ5" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
@@ -18975,7 +18938,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Lecture)
@@ -18996,12 +18959,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="12" t="inlineStr">
-        <is>
-          <t>English Language and communication
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
 (Lecture)
-Rajesh N S
-C003</t>
+Sunil P V
+C002</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -19035,13 +18998,7 @@
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
-      <c r="AJ6" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
@@ -19050,11 +19007,7 @@
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS6" s="5" t="n"/>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
@@ -19067,38 +19020,32 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="BC4"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="AS3"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="AT4:BB4"/>
-    <mergeCell ref="AJ3:AR3"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="Z2:AK2"/>
     <mergeCell ref="AS5"/>
-    <mergeCell ref="AJ6:AR6"/>
-    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="AL2"/>
     <mergeCell ref="H4"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="AS6"/>
-    <mergeCell ref="L2:T2"/>
     <mergeCell ref="O4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="AI4"/>
     <mergeCell ref="U3"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="L3:T3"/>
@@ -19462,7 +19409,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Practical)
@@ -19486,12 +19433,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O2" s="37" t="inlineStr">
+      <c r="O2" s="36" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing
 (Lecture)
 Chandrika Kamath
-C402</t>
+C406</t>
         </is>
       </c>
       <c r="P2" s="5" t="n"/>
@@ -19549,12 +19496,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="36" t="inlineStr">
+      <c r="B3" s="35" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C303</t>
+C408</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -19570,12 +19517,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="38" t="inlineStr">
+      <c r="L3" s="37" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Tutorial)
 Jagadish D.N
-C202</t>
+C407</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -19588,12 +19535,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S3" s="37" t="inlineStr">
+      <c r="S3" s="36" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing
 (Lecture)
 Chandrika Kamath
-C402</t>
+C406</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -19647,7 +19594,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="36" t="inlineStr">
+      <c r="B4" s="35" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Lecture)
@@ -19668,12 +19615,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="16" t="inlineStr">
+      <c r="L4" s="13" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Lecture)
 Jagdish R.B
-C303</t>
+C406</t>
         </is>
       </c>
       <c r="M4" s="5" t="n"/>
@@ -19734,12 +19681,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -19755,12 +19702,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="16" t="inlineStr">
+      <c r="L5" s="13" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Lecture)
 Jagdish R.B
-C402</t>
+C406</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -19821,12 +19768,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
+      <c r="B6" s="37" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C203</t>
+C101</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -19842,12 +19789,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="16" t="inlineStr">
+      <c r="L6" s="13" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Tutorial)
 Jagdish R.B
-C104</t>
+C405</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -20341,24 +20288,13 @@
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
       <c r="AV2" s="5" t="n"/>
-      <c r="AW2" s="39" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Tutorial)
-Animesh, Pramod
-C004</t>
-        </is>
-      </c>
+      <c r="AW2" s="5" t="n"/>
       <c r="AX2" s="5" t="n"/>
       <c r="AY2" s="5" t="n"/>
       <c r="AZ2" s="5" t="n"/>
       <c r="BA2" s="5" t="n"/>
       <c r="BB2" s="5" t="n"/>
-      <c r="BC2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC2" s="5" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -20524,14 +20460,7 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="39" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-Animesh, Pramod
-C004</t>
-        </is>
-      </c>
+      <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="5" t="n"/>
@@ -20540,11 +20469,7 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
@@ -20602,14 +20527,7 @@
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
-      <c r="AB6" s="39" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-Animesh, Pramod
-C004</t>
-        </is>
-      </c>
+      <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="5" t="n"/>
       <c r="AD6" s="5" t="n"/>
       <c r="AE6" s="5" t="n"/>
@@ -20618,11 +20536,7 @@
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
       <c r="AJ6" s="5" t="n"/>
-      <c r="AK6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
@@ -20643,17 +20557,11 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AW2:BB2"/>
+  <mergeCells count="5">
     <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="AB6:AJ6"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AK6"/>
-    <mergeCell ref="BC2"/>
     <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21699,7 +21607,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -21738,14 +21646,7 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="12" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-Rajesh N S
-C003</t>
-        </is>
-      </c>
+      <c r="Z2" s="5" t="n"/>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
       <c r="AC2" s="5" t="n"/>
@@ -21754,23 +21655,19 @@
       <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI2" s="5" t="n"/>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
-      <c r="AP2" s="9" t="inlineStr">
+      <c r="AP2" s="8" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Practical)
 Animesh Roy
-L208</t>
+L105</t>
         </is>
       </c>
       <c r="AQ2" s="5" t="n"/>
@@ -21797,7 +21694,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -21818,14 +21715,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-Sunil C K
-C003</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
@@ -21834,11 +21724,7 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="7" t="inlineStr">
         <is>
@@ -21847,7 +21733,14 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="5" t="n"/>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+Rajesh N S
+C002</t>
+        </is>
+      </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="5" t="n"/>
@@ -21856,14 +21749,12 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="5" t="n"/>
-      <c r="AJ3" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="AI3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
       <c r="AM3" s="5" t="n"/>
@@ -21894,7 +21785,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Statistics
 (Tutorial)
@@ -21912,7 +21803,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I4" s="14" t="inlineStr">
+      <c r="I4" s="12" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Tutorial)
@@ -21944,7 +21835,14 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="5" t="n"/>
+      <c r="Z4" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+Sunil C K
+C003</t>
+        </is>
+      </c>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
       <c r="AC4" s="5" t="n"/>
@@ -21953,7 +21851,11 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
-      <c r="AI4" s="5" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
       <c r="AL4" s="5" t="n"/>
@@ -21964,13 +21866,7 @@
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
@@ -21979,11 +21875,7 @@
       <c r="AZ4" s="5" t="n"/>
       <c r="BA4" s="5" t="n"/>
       <c r="BB4" s="5" t="n"/>
-      <c r="BC4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC4" s="5" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -21991,7 +21883,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Lecture)
@@ -22012,14 +21904,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-Sunil C K
-C002</t>
-        </is>
-      </c>
+      <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -22028,11 +21913,7 @@
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="5" t="n"/>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="7" t="inlineStr">
         <is>
@@ -22041,7 +21922,14 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="5" t="n"/>
+      <c r="Z5" s="9" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+Rajesh N S
+C002</t>
+        </is>
+      </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="5" t="n"/>
@@ -22050,14 +21938,12 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AI5" s="5" t="n"/>
-      <c r="AJ5" s="11" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="AI5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
@@ -22088,7 +21974,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Lecture)
@@ -22109,7 +21995,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n"/>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+Sunil C K
+C003</t>
+        </is>
+      </c>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
@@ -22118,7 +22011,11 @@
       <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="7" t="inlineStr">
         <is>
@@ -22127,14 +22024,7 @@
       </c>
       <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
-      <c r="Z6" s="12" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-Rajesh N S
-C003</t>
-        </is>
-      </c>
+      <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="5" t="n"/>
@@ -22143,18 +22033,8 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
-      <c r="AI6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ6" s="8" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="AI6" s="5" t="n"/>
+      <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
@@ -22163,11 +22043,7 @@
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS6" s="5" t="n"/>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
@@ -22180,41 +22056,35 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="BC4"/>
-    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AI3"/>
     <mergeCell ref="AS3"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="AI2"/>
+    <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="BB2"/>
-    <mergeCell ref="AT4:BB4"/>
-    <mergeCell ref="AJ3:AR3"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="Z2:AH2"/>
+    <mergeCell ref="AI5"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="AS5"/>
-    <mergeCell ref="AJ6:AR6"/>
+    <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="AP2:BA2"/>
-    <mergeCell ref="AJ5:AR5"/>
+    <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="H4"/>
+    <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="L6:T6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AI6"/>
-    <mergeCell ref="AS6"/>
-    <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="O4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="U3"/>
+    <mergeCell ref="AI4"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22575,13 +22445,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="5" t="n"/>
@@ -22595,12 +22459,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="16" t="inlineStr">
+      <c r="L2" s="13" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
-(Lecture)
+(Practical)
 Malay
-C003</t>
+L106</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -22611,14 +22475,14 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
-      <c r="X2" s="5" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="7" t="inlineStr">
         <is>
@@ -22627,7 +22491,7 @@
       </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="17" t="inlineStr">
+      <c r="AC2" s="14" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -22648,24 +22512,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AM2" s="18" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-Prabhu Prasad B M
-C002</t>
-        </is>
-      </c>
+      <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
-      <c r="AS2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS2" s="5" t="n"/>
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
       <c r="AV2" s="5" t="n"/>
@@ -22683,10 +22536,10 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>Computer Networks
-(Lecture)
+(Tutorial)
 Prabhu Prasad B M
 C002</t>
         </is>
@@ -22696,7 +22549,11 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="5" t="n"/>
       <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="6" t="inlineStr">
@@ -22725,7 +22582,7 @@
       </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="17" t="inlineStr">
+      <c r="AC3" s="14" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -22746,14 +22603,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AM3" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Practical)
-Sunil P V
-L206</t>
-        </is>
-      </c>
+      <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
       <c r="AP3" s="5" t="n"/>
@@ -22765,11 +22615,7 @@
       <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
-      <c r="AY3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AY3" s="5" t="n"/>
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
       <c r="BB3" s="5" t="n"/>
@@ -22781,10 +22627,11 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+Sunil P V
 C002</t>
         </is>
       </c>
@@ -22801,14 +22648,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-Malay
-L207</t>
-        </is>
-      </c>
+      <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
@@ -22820,11 +22660,7 @@
       <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
-      <c r="X4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="7" t="inlineStr">
         <is>
@@ -22837,7 +22673,7 @@
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
       <c r="AF4" s="5" t="n"/>
-      <c r="AG4" s="17" t="inlineStr">
+      <c r="AG4" s="14" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Tutorial)
@@ -22855,13 +22691,24 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AN4" s="5" t="n"/>
+      <c r="AN4" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Tutorial)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="5" t="n"/>
+      <c r="AT4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AU4" s="5" t="n"/>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
@@ -22878,32 +22725,26 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="19" t="inlineStr">
-        <is>
-          <t>Software design
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
 (Lecture)
-Sunil P V
-C002</t>
+Ganesh
+C004</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -22932,10 +22773,10 @@
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="16" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms
+          <t>Software design
 (Lecture)
-Malay
-C002</t>
+Sunil P V
+C003</t>
         </is>
       </c>
       <c r="AD5" s="5" t="n"/>
@@ -22975,13 +22816,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
@@ -22990,17 +22825,13 @@
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="19" t="inlineStr">
-        <is>
-          <t>Software design
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
 (Lecture)
-Sunil P V
-C002</t>
+Ganesh
+C004</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -23027,12 +22858,12 @@
       </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="18" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-Prabhu Prasad B M
-C003</t>
+      <c r="AC6" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Practical)
+Sunil P V
+L105</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -23043,14 +22874,14 @@
       <c r="AI6" s="5" t="n"/>
       <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
-      <c r="AO6" s="5" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
@@ -23067,44 +22898,37 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="30">
     <mergeCell ref="AL5"/>
     <mergeCell ref="AM4"/>
-    <mergeCell ref="X4"/>
+    <mergeCell ref="H3"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="U5"/>
     <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="L4:W4"/>
+    <mergeCell ref="AO6"/>
     <mergeCell ref="K4"/>
-    <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="H5"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AY3"/>
+    <mergeCell ref="AC3:AK3"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="X2"/>
     <mergeCell ref="U6"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="K5"/>
     <mergeCell ref="AL2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="AM3:AX3"/>
     <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="AC6:AN6"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="U2"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AM2:AR2"/>
     <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AT4"/>
     <mergeCell ref="AL3"/>
-    <mergeCell ref="AS2"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="AN4:AS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23464,13 +23288,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="5" t="n"/>
@@ -23484,7 +23302,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n"/>
+      <c r="L2" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Lecture)
+Pramod
+C002</t>
+        </is>
+      </c>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
@@ -23493,7 +23318,11 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
       <c r="X2" s="5" t="n"/>
@@ -23505,7 +23334,7 @@
       </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="17" t="inlineStr">
+      <c r="AC2" s="14" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -23550,14 +23379,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Practical)
-Vivekraj
-L206</t>
-        </is>
-      </c>
+      <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="5" t="n"/>
       <c r="E3" s="5" t="n"/>
@@ -23566,14 +23388,14 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
@@ -23592,7 +23414,7 @@
       </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="17" t="inlineStr">
+      <c r="AC3" s="14" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -23637,10 +23459,11 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+Vivekraj
 C003</t>
         </is>
       </c>
@@ -23657,14 +23480,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-Pramod
-C002</t>
-        </is>
-      </c>
+      <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
@@ -23673,11 +23489,7 @@
       <c r="R4" s="5" t="n"/>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
@@ -23693,7 +23505,7 @@
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
       <c r="AF4" s="5" t="n"/>
-      <c r="AG4" s="17" t="inlineStr">
+      <c r="AG4" s="14" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Tutorial)
@@ -23711,13 +23523,24 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AN4" s="5" t="n"/>
+      <c r="AN4" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Tutorial)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="5" t="n"/>
+      <c r="AT4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AU4" s="5" t="n"/>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
@@ -23734,32 +23557,26 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="19" t="inlineStr">
-        <is>
-          <t>Software design
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
 (Lecture)
-Vivekraj
-C003</t>
+Ganesh
+C004</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -23786,7 +23603,14 @@
       </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="5" t="n"/>
+      <c r="AC5" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+Pramod
+L105</t>
+        </is>
+      </c>
       <c r="AD5" s="5" t="n"/>
       <c r="AE5" s="5" t="n"/>
       <c r="AF5" s="5" t="n"/>
@@ -23798,7 +23622,11 @@
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
-      <c r="AO5" s="5" t="n"/>
+      <c r="AO5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
@@ -23820,13 +23648,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
@@ -23835,17 +23657,13 @@
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-Pramod
-L208</t>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+Ganesh
+C004</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -23856,14 +23674,14 @@
       <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="7" t="inlineStr">
         <is>
@@ -23872,7 +23690,14 @@
       </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="5" t="n"/>
+      <c r="AC6" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Practical)
+Vivekraj
+L106</t>
+        </is>
+      </c>
       <c r="AD6" s="5" t="n"/>
       <c r="AE6" s="5" t="n"/>
       <c r="AF6" s="5" t="n"/>
@@ -23884,7 +23709,11 @@
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
-      <c r="AO6" s="5" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
@@ -23901,34 +23730,35 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="AM4"/>
     <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AC5:AN5"/>
     <mergeCell ref="U5"/>
     <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AO6"/>
     <mergeCell ref="K4"/>
-    <mergeCell ref="L4:T4"/>
     <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="U4"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="K3"/>
     <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AC3:AK3"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="K5"/>
+    <mergeCell ref="U6"/>
     <mergeCell ref="AL2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="L6:W6"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AC6:AN6"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="N3"/>
+    <mergeCell ref="U2"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="Z6:AB6"/>
     <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="X6"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AT4"/>
     <mergeCell ref="AL3"/>
+    <mergeCell ref="AO5"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="AN4:AS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24288,13 +24118,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="20" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="5" t="n"/>
@@ -24308,12 +24132,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-Malay
-L105</t>
+      <c r="L2" s="18" t="inlineStr">
+        <is>
+          <t>Operating systems
+(Lecture)
+Suvadip Hazra
+C002</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -24324,14 +24148,14 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="7" t="inlineStr">
         <is>
@@ -24340,7 +24164,14 @@
       </c>
       <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="5" t="n"/>
+      <c r="AC2" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Lecture)
+Malay
+C002</t>
+        </is>
+      </c>
       <c r="AD2" s="5" t="n"/>
       <c r="AE2" s="5" t="n"/>
       <c r="AF2" s="5" t="n"/>
@@ -24349,7 +24180,11 @@
       <c r="AI2" s="5" t="n"/>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
-      <c r="AL2" s="5" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
@@ -24360,7 +24195,7 @@
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
       <c r="AV2" s="5" t="n"/>
-      <c r="AW2" s="21" t="inlineStr">
+      <c r="AW2" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Tutorial)
@@ -24387,10 +24222,10 @@
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-Malay
-C003</t>
+          <t>Software design
+(Practical)
+Sunil P V
+L105</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -24401,15 +24236,22 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="5" t="n"/>
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="O3" s="15" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Prabhu Prasad B M
+C003</t>
+        </is>
+      </c>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
       <c r="R3" s="5" t="n"/>
@@ -24418,7 +24260,11 @@
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="5" t="n"/>
+      <c r="X3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="7" t="inlineStr">
         <is>
@@ -24434,7 +24280,7 @@
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
       <c r="AI3" s="5" t="n"/>
-      <c r="AJ3" s="21" t="inlineStr">
+      <c r="AJ3" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Lecture)
@@ -24455,12 +24301,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AT3" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-Sunil P V
-C003</t>
+      <c r="AT3" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Tutorial)
+Ganesh
+C004</t>
         </is>
       </c>
       <c r="AU3" s="5" t="n"/>
@@ -24468,14 +24314,14 @@
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
       <c r="AY3" s="5" t="n"/>
-      <c r="AZ3" s="5" t="n"/>
+      <c r="AZ3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BA3" s="5" t="n"/>
       <c r="BB3" s="5" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -24485,9 +24331,10 @@
       </c>
       <c r="B4" s="15" t="inlineStr">
         <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
+          <t>Computer Networks
+(Tutorial)
+Prabhu Prasad B M
+C002</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -24495,7 +24342,11 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="6" t="inlineStr">
@@ -24505,10 +24356,10 @@
       </c>
       <c r="L4" s="16" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms
+          <t>Software design
 (Lecture)
-Malay
-C003</t>
+Sunil P V
+C002</t>
         </is>
       </c>
       <c r="M4" s="5" t="n"/>
@@ -24552,7 +24403,7 @@
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="21" t="inlineStr">
+      <c r="AT4" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Lecture)
@@ -24580,33 +24431,38 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I5" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+Sunil P V
+C003</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="5" t="n"/>
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
+      <c r="R5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
       <c r="U5" s="5" t="n"/>
@@ -24621,35 +24477,42 @@
       </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Practical)
-Sunil P V
-L107</t>
-        </is>
-      </c>
+      <c r="AC5" s="5" t="n"/>
       <c r="AD5" s="5" t="n"/>
       <c r="AE5" s="5" t="n"/>
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
-      <c r="AJ5" s="5" t="n"/>
+      <c r="AJ5" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="5" t="n"/>
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
-      <c r="AS5" s="5" t="n"/>
-      <c r="AT5" s="5" t="n"/>
+      <c r="AS5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AT5" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Lecture)
+Malay
+C002</t>
+        </is>
+      </c>
       <c r="AU5" s="5" t="n"/>
       <c r="AV5" s="5" t="n"/>
       <c r="AW5" s="5" t="n"/>
@@ -24658,7 +24521,11 @@
       <c r="AZ5" s="5" t="n"/>
       <c r="BA5" s="5" t="n"/>
       <c r="BB5" s="5" t="n"/>
-      <c r="BC5" s="5" t="n"/>
+      <c r="BC5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -24666,10 +24533,11 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
+      <c r="B6" s="18" t="inlineStr">
+        <is>
+          <t>Operating systems
+(Lecture)
+Suvadip Hazra
 C002</t>
         </is>
       </c>
@@ -24686,12 +24554,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-Sunil P V
-C002</t>
+      <c r="L6" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+Malay
+L106</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -24702,14 +24570,14 @@
       <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="7" t="inlineStr">
         <is>
@@ -24718,34 +24586,34 @@
       </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="18" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-Prabhu Prasad B M
-C002</t>
-        </is>
-      </c>
+      <c r="AC6" s="5" t="n"/>
       <c r="AD6" s="5" t="n"/>
       <c r="AE6" s="5" t="n"/>
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
-      <c r="AJ6" s="5" t="n"/>
+      <c r="AJ6" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AK6" s="5" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
       <c r="AO6" s="5" t="n"/>
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="5" t="n"/>
+      <c r="AS6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
@@ -24758,40 +24626,47 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="40">
+    <mergeCell ref="BC5"/>
+    <mergeCell ref="AZ3"/>
     <mergeCell ref="BC4"/>
+    <mergeCell ref="AT5:BB5"/>
     <mergeCell ref="AS3"/>
-    <mergeCell ref="AC5:AN5"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AT4:BB4"/>
+    <mergeCell ref="AJ3:AR3"/>
     <mergeCell ref="K4"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="L4:T4"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AJ3:AR3"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="R5"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="K3"/>
     <mergeCell ref="U4"/>
+    <mergeCell ref="AS5"/>
+    <mergeCell ref="AJ6:AR6"/>
     <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="AL6"/>
     <mergeCell ref="BC2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="AL2"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L6:W6"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="U2"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="AS6"/>
+    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="AW2:BB2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="BC3"/>
-    <mergeCell ref="AO5"/>
+    <mergeCell ref="X3"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="X6"/>
+    <mergeCell ref="AT3:AY3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AT3:BB3"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25151,14 +25026,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-Vivekraj
-C002</t>
-        </is>
-      </c>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="5" t="n"/>
@@ -25172,7 +25040,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n"/>
+      <c r="L2" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+Vivekraj
+C003</t>
+        </is>
+      </c>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
@@ -25181,7 +25056,11 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
       <c r="X2" s="5" t="n"/>
@@ -25213,7 +25092,7 @@
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
       <c r="AV2" s="5" t="n"/>
-      <c r="AW2" s="21" t="inlineStr">
+      <c r="AW2" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Tutorial)
@@ -25238,7 +25117,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>Software design
 (Lecture)
@@ -25287,7 +25166,7 @@
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
       <c r="AI3" s="5" t="n"/>
-      <c r="AJ3" s="21" t="inlineStr">
+      <c r="AJ3" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Lecture)
@@ -25308,13 +25187,24 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AT3" s="5" t="n"/>
+      <c r="AT3" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Tutorial)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AU3" s="5" t="n"/>
       <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
       <c r="AY3" s="5" t="n"/>
-      <c r="AZ3" s="5" t="n"/>
+      <c r="AZ3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BA3" s="5" t="n"/>
       <c r="BB3" s="5" t="n"/>
       <c r="BC3" s="5" t="n"/>
@@ -25325,13 +25215,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C002</t>
-        </is>
-      </c>
+      <c r="B4" s="5" t="n"/>
       <c r="C4" s="5" t="n"/>
       <c r="D4" s="5" t="n"/>
       <c r="E4" s="5" t="n"/>
@@ -25345,7 +25229,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n"/>
+      <c r="L4" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Lecture)
+Pramod
+C003</t>
+        </is>
+      </c>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
@@ -25354,7 +25245,11 @@
       <c r="R4" s="5" t="n"/>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
@@ -25383,7 +25278,7 @@
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
       <c r="AS4" s="5" t="n"/>
-      <c r="AT4" s="21" t="inlineStr">
+      <c r="AT4" s="19" t="inlineStr">
         <is>
           <t>Differential Equations
 (Lecture)
@@ -25411,37 +25306,41 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="19" t="inlineStr">
-        <is>
-          <t>Software design
-(Practical)
-Vivekraj
-L206</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I5" s="13" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+Pramod
+L105</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="5" t="n"/>
       <c r="X5" s="5" t="n"/>
@@ -25460,7 +25359,14 @@
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
-      <c r="AJ5" s="5" t="n"/>
+      <c r="AJ5" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
@@ -25469,7 +25375,11 @@
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
-      <c r="AS5" s="5" t="n"/>
+      <c r="AS5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT5" s="5" t="n"/>
       <c r="AU5" s="5" t="n"/>
       <c r="AV5" s="5" t="n"/>
@@ -25487,11 +25397,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C003</t>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>Software design
+(Practical)
+Vivekraj
+L105</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -25502,21 +25413,14 @@
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-Pramod
-L106</t>
-        </is>
-      </c>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
+      <c r="N6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
@@ -25526,11 +25430,7 @@
       <c r="U6" s="5" t="n"/>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="7" t="inlineStr">
         <is>
@@ -25546,7 +25446,14 @@
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
       <c r="AI6" s="5" t="n"/>
-      <c r="AJ6" s="5" t="n"/>
+      <c r="AJ6" s="17" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+Ganesh
+C004</t>
+        </is>
+      </c>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
@@ -25555,7 +25462,11 @@
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="5" t="n"/>
+      <c r="AS6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
@@ -25568,30 +25479,37 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="30">
+    <mergeCell ref="AZ3"/>
     <mergeCell ref="BC4"/>
+    <mergeCell ref="N6"/>
     <mergeCell ref="AS3"/>
+    <mergeCell ref="U5"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AT4:BB4"/>
     <mergeCell ref="K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AJ3:AR3"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="K6"/>
+    <mergeCell ref="H5"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="AS5"/>
+    <mergeCell ref="AJ6:AR6"/>
     <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B6:J6"/>
     <mergeCell ref="BC2"/>
-    <mergeCell ref="L6:W6"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="U2"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="N5"/>
+    <mergeCell ref="AS6"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="AW2:BB2"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="X6"/>
+    <mergeCell ref="AT3:AY3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25951,10 +25869,10 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
-(Elective)
+(A)
 C002</t>
         </is>
       </c>
@@ -25971,33 +25889,33 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n"/>
+      <c r="L2" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+Krishnendu
+C405</t>
+        </is>
+      </c>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-Animesh Roy
-C101</t>
-        </is>
-      </c>
+      <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="5" t="n"/>
-      <c r="AA2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA2" s="5" t="n"/>
       <c r="AB2" s="5" t="n"/>
       <c r="AC2" s="7" t="inlineStr">
         <is>
@@ -26006,42 +25924,20 @@
       </c>
       <c r="AD2" s="5" t="n"/>
       <c r="AE2" s="5" t="n"/>
-      <c r="AF2" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-Sunil C K
-C406</t>
-        </is>
-      </c>
+      <c r="AF2" s="5" t="n"/>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
       <c r="AI2" s="5" t="n"/>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM2" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Krishnendu
-C305</t>
-        </is>
-      </c>
+      <c r="AL2" s="5" t="n"/>
+      <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
-      <c r="AS2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS2" s="5" t="n"/>
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
       <c r="AV2" s="5" t="n"/>
@@ -26059,11 +25955,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>Basket (A)
-(Elective)
-C003</t>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+Krishnendu
+C408</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -26071,7 +25968,11 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="5" t="n"/>
       <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="6" t="inlineStr">
@@ -26079,44 +25980,34 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="26" t="inlineStr">
-        <is>
-          <t>Basket (B)
-(Elective)
-C003</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
+      <c r="O3" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Animesh Roy
+C404</t>
+        </is>
+      </c>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="S3" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-Sunil C K
-C003</t>
-        </is>
-      </c>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="5" t="n"/>
+      <c r="X3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="7" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -26155,11 +26046,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
-        <is>
-          <t>Basket (A)
-(Elective)
-C003</t>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+Sunil C K
+C407</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -26167,41 +26059,41 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H4" s="5" t="n"/>
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Animesh Roy
+C406</t>
+        </is>
+      </c>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-Animesh Roy
-L208</t>
-        </is>
-      </c>
+      <c r="O4" s="5" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
       <c r="R4" s="5" t="n"/>
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="5" t="n"/>
-      <c r="AA4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
       <c r="AC4" s="7" t="inlineStr">
         <is>
@@ -26210,14 +26102,7 @@
       </c>
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
-      <c r="AF4" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Krishnendu
-C302</t>
-        </is>
-      </c>
+      <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
       <c r="AI4" s="5" t="n"/>
@@ -26226,11 +26111,7 @@
       <c r="AL4" s="5" t="n"/>
       <c r="AM4" s="5" t="n"/>
       <c r="AN4" s="5" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
@@ -26252,11 +26133,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>Basket (B)
-(Elective)
-C003</t>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+Sunil C K
+C405</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -26272,12 +26154,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
+      <c r="L5" s="21" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Animesh Roy
-C305</t>
+Krishnendu
+C405</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -26307,12 +26189,12 @@
       </c>
       <c r="AD5" s="5" t="n"/>
       <c r="AE5" s="5" t="n"/>
-      <c r="AF5" s="25" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Krishnendu
-C405</t>
+      <c r="AF5" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Tutorial)
+Animesh Roy
+C403</t>
         </is>
       </c>
       <c r="AG5" s="5" t="n"/>
@@ -26320,14 +26202,14 @@
       <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="5" t="n"/>
+      <c r="AL5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="5" t="n"/>
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
@@ -26349,11 +26231,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
-        <is>
-          <t>Basket (B)
-(Elective)
-C003</t>
+      <c r="B6" s="23" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+Sunil C K
+C407</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -26361,53 +26244,42 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="I6" s="22" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+Animesh Roy
+L105</t>
+        </is>
+      </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="23" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-Animesh Roy
-C104</t>
-        </is>
-      </c>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="S6" s="24" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-Sunil C K
-C101</t>
-        </is>
-      </c>
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="5" t="n"/>
       <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="5" t="n"/>
       <c r="W6" s="5" t="n"/>
       <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="5" t="n"/>
       <c r="AC6" s="7" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -26441,43 +26313,34 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="28">
+    <mergeCell ref="AL5"/>
     <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AO4"/>
+    <mergeCell ref="H3"/>
     <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AA2"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="O4:Z4"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="K6"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="L4:T4"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AB3"/>
-    <mergeCell ref="S6:AA6"/>
-    <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="AB6"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AL2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AA4"/>
-    <mergeCell ref="AS2"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="X3"/>
+    <mergeCell ref="I6:T6"/>
     <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="S3:AA3"/>
-    <mergeCell ref="AO5"/>
-    <mergeCell ref="L3:Q3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AF4:AN4"/>
-    <mergeCell ref="R3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2BDDF"/>
-        <bgColor rgb="00E2BDDF"/>
+        <fgColor rgb="00E9ECBA"/>
+        <bgColor rgb="00E9ECBA"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7E5D1"/>
-        <bgColor rgb="00B7E5D1"/>
+        <fgColor rgb="00E1D5CE"/>
+        <bgColor rgb="00E1D5CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,206 +115,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0BAEC"/>
-        <bgColor rgb="00D0BAEC"/>
+        <fgColor rgb="00E0D4DB"/>
+        <bgColor rgb="00E0D4DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDC8D5"/>
-        <bgColor rgb="00DDC8D5"/>
+        <fgColor rgb="00ECEFD4"/>
+        <bgColor rgb="00ECEFD4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8C2E3"/>
-        <bgColor rgb="00D8C2E3"/>
+        <fgColor rgb="00DCD2B6"/>
+        <bgColor rgb="00DCD2B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCEDD0"/>
-        <bgColor rgb="00DCEDD0"/>
+        <fgColor rgb="00BBBDC4"/>
+        <bgColor rgb="00BBBDC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5BAB9"/>
-        <bgColor rgb="00B5BAB9"/>
+        <fgColor rgb="00BBBDCB"/>
+        <bgColor rgb="00BBBDCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5BAE7"/>
-        <bgColor rgb="00D5BAE7"/>
+        <fgColor rgb="00BFCEE0"/>
+        <bgColor rgb="00BFCEE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEBCB5"/>
-        <bgColor rgb="00EEBCB5"/>
+        <fgColor rgb="00D4DCBC"/>
+        <bgColor rgb="00D4DCBC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8D3C7"/>
-        <bgColor rgb="00B8D3C7"/>
+        <fgColor rgb="00D9C5C5"/>
+        <bgColor rgb="00D9C5C5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E7D9"/>
-        <bgColor rgb="00B9E7D9"/>
+        <fgColor rgb="00CDEBC4"/>
+        <bgColor rgb="00CDEBC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2E5E3"/>
-        <bgColor rgb="00D2E5E3"/>
+        <fgColor rgb="00E2DBBE"/>
+        <bgColor rgb="00E2DBBE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD5C3"/>
-        <bgColor rgb="00BDD5C3"/>
+        <fgColor rgb="00ECC0D0"/>
+        <bgColor rgb="00ECC0D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EABDC2"/>
-        <bgColor rgb="00EABDC2"/>
+        <fgColor rgb="00EBC5CC"/>
+        <bgColor rgb="00EBC5CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEECD0"/>
-        <bgColor rgb="00EEECD0"/>
+        <fgColor rgb="00D4BCDD"/>
+        <bgColor rgb="00D4BCDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7D3CD"/>
-        <bgColor rgb="00B7D3CD"/>
+        <fgColor rgb="00EAE8F0"/>
+        <bgColor rgb="00EAE8F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9B4BF"/>
-        <bgColor rgb="00B9B4BF"/>
+        <fgColor rgb="00BFC7ED"/>
+        <bgColor rgb="00BFC7ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1BBB4"/>
-        <bgColor rgb="00E1BBB4"/>
+        <fgColor rgb="00ECE1E8"/>
+        <bgColor rgb="00ECE1E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0CDD5"/>
-        <bgColor rgb="00F0CDD5"/>
+        <fgColor rgb="00F0E3CD"/>
+        <bgColor rgb="00F0E3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBEDC6"/>
-        <bgColor rgb="00BBEDC6"/>
+        <fgColor rgb="00B8BBDD"/>
+        <bgColor rgb="00B8BBDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCE9DA"/>
-        <bgColor rgb="00DCE9DA"/>
+        <fgColor rgb="00DED6BD"/>
+        <bgColor rgb="00DED6BD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3DEDF"/>
-        <bgColor rgb="00D3DEDF"/>
+        <fgColor rgb="00C5D9C0"/>
+        <bgColor rgb="00C5D9C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFB6C2"/>
-        <bgColor rgb="00DFB6C2"/>
+        <fgColor rgb="00E1D4E1"/>
+        <bgColor rgb="00E1D4E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2B8E2"/>
-        <bgColor rgb="00D2B8E2"/>
+        <fgColor rgb="00B7BCD6"/>
+        <bgColor rgb="00B7BCD6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFEEEE"/>
-        <bgColor rgb="00EFEEEE"/>
+        <fgColor rgb="00E5C7B7"/>
+        <bgColor rgb="00E5C7B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7BDC0"/>
-        <bgColor rgb="00B7BDC0"/>
+        <fgColor rgb="00E9D3C0"/>
+        <bgColor rgb="00E9D3C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFBFD2"/>
-        <bgColor rgb="00BFBFD2"/>
+        <fgColor rgb="00E6C6ED"/>
+        <bgColor rgb="00E6C6ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAD8DD"/>
-        <bgColor rgb="00CAD8DD"/>
+        <fgColor rgb="00C5B8DA"/>
+        <bgColor rgb="00C5B8DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BECEC1"/>
-        <bgColor rgb="00BECEC1"/>
+        <fgColor rgb="00D9BDD7"/>
+        <bgColor rgb="00D9BDD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E3EF"/>
-        <bgColor rgb="00E1E3EF"/>
+        <fgColor rgb="00C3EDBF"/>
+        <bgColor rgb="00C3EDBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5BCCF"/>
-        <bgColor rgb="00E5BCCF"/>
+        <fgColor rgb="00D9EAEB"/>
+        <bgColor rgb="00D9EAEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7D3DD"/>
-        <bgColor rgb="00B7D3DD"/>
+        <fgColor rgb="00D8EAD3"/>
+        <bgColor rgb="00D8EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0BACB"/>
-        <bgColor rgb="00F0BACB"/>
+        <fgColor rgb="00EACCBA"/>
+        <bgColor rgb="00EACCBA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0EBB9"/>
-        <bgColor rgb="00C0EBB9"/>
+        <fgColor rgb="00F0C8E6"/>
+        <bgColor rgb="00F0C8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9C1E7"/>
-        <bgColor rgb="00E9C1E7"/>
+        <fgColor rgb="00B9D6B4"/>
+        <bgColor rgb="00B9D6B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDE1E1"/>
-        <bgColor rgb="00BDE1E1"/>
+        <fgColor rgb="00B8C5B9"/>
+        <bgColor rgb="00B8C5B9"/>
       </patternFill>
     </fill>
   </fills>
@@ -8094,13 +8094,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ2" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
       <c r="AM2" s="5" t="n"/>
@@ -8109,18 +8103,8 @@
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
-      <c r="AS2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT2" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS2" s="5" t="n"/>
+      <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
       <c r="AV2" s="5" t="n"/>
       <c r="AW2" s="5" t="n"/>
@@ -8129,11 +8113,7 @@
       <c r="AZ2" s="5" t="n"/>
       <c r="BA2" s="5" t="n"/>
       <c r="BB2" s="5" t="n"/>
-      <c r="BC2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC2" s="5" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -8212,13 +8192,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
       <c r="AM3" s="5" t="n"/>
@@ -8227,18 +8201,8 @@
       <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
-      <c r="AS3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS3" s="5" t="n"/>
+      <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
       <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
@@ -8247,11 +8211,7 @@
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
       <c r="BB3" s="5" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -8329,13 +8289,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ4" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
       <c r="AL4" s="5" t="n"/>
       <c r="AM4" s="5" t="n"/>
@@ -8344,18 +8298,8 @@
       <c r="AP4" s="5" t="n"/>
       <c r="AQ4" s="5" t="n"/>
       <c r="AR4" s="5" t="n"/>
-      <c r="AS4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT4" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS4" s="5" t="n"/>
+      <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
       <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
@@ -8364,11 +8308,7 @@
       <c r="AZ4" s="5" t="n"/>
       <c r="BA4" s="5" t="n"/>
       <c r="BB4" s="5" t="n"/>
-      <c r="BC4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC4" s="5" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -8426,13 +8366,7 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="5" t="n"/>
@@ -8441,18 +8375,8 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ5" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AI5" s="5" t="n"/>
+      <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
@@ -8461,18 +8385,8 @@
       <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
-      <c r="AS5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT5" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS5" s="5" t="n"/>
+      <c r="AT5" s="5" t="n"/>
       <c r="AU5" s="5" t="n"/>
       <c r="AV5" s="5" t="n"/>
       <c r="AW5" s="5" t="n"/>
@@ -8481,11 +8395,7 @@
       <c r="AZ5" s="5" t="n"/>
       <c r="BA5" s="5" t="n"/>
       <c r="BB5" s="5" t="n"/>
-      <c r="BC5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC5" s="5" t="n"/>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -8563,13 +8473,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ6" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
       <c r="AL6" s="5" t="n"/>
       <c r="AM6" s="5" t="n"/>
@@ -8578,18 +8482,8 @@
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT6" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS6" s="5" t="n"/>
+      <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
       <c r="AW6" s="5" t="n"/>
@@ -8598,67 +8492,41 @@
       <c r="AZ6" s="5" t="n"/>
       <c r="BA6" s="5" t="n"/>
       <c r="BB6" s="5" t="n"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="31">
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="BC5"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AI3"/>
-    <mergeCell ref="BC4"/>
     <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AT5:BB5"/>
-    <mergeCell ref="AS3"/>
     <mergeCell ref="U5"/>
     <mergeCell ref="AI2"/>
     <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="AT4:BB4"/>
-    <mergeCell ref="AJ3:AR3"/>
     <mergeCell ref="K4"/>
     <mergeCell ref="L4:T4"/>
+    <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="AS5"/>
-    <mergeCell ref="AJ6:AR6"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="AJ5:AR5"/>
-    <mergeCell ref="BC6"/>
     <mergeCell ref="K5"/>
-    <mergeCell ref="BC2"/>
-    <mergeCell ref="AJ4:AR4"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="AT2:BB2"/>
-    <mergeCell ref="AS4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="R6"/>
     <mergeCell ref="AI6"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="O3:T3"/>
-    <mergeCell ref="AS6"/>
     <mergeCell ref="N2"/>
     <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="AT6:BB6"/>
-    <mergeCell ref="AJ2:AR2"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AI4"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="BC3"/>
-    <mergeCell ref="AS2"/>
-    <mergeCell ref="AT3:BB3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9943,13 +9811,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AM2" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
       <c r="AO2" s="5" t="n"/>
       <c r="AP2" s="5" t="n"/>
@@ -9958,11 +9820,7 @@
       <c r="AS2" s="5" t="n"/>
       <c r="AT2" s="5" t="n"/>
       <c r="AU2" s="5" t="n"/>
-      <c r="AV2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV2" s="5" t="n"/>
       <c r="AW2" s="5" t="n"/>
       <c r="AX2" s="5" t="n"/>
       <c r="AY2" s="5" t="n"/>
@@ -10048,13 +9906,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
       <c r="AM3" s="5" t="n"/>
@@ -10063,18 +9915,8 @@
       <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
-      <c r="AS3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS3" s="5" t="n"/>
+      <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
       <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
@@ -10083,11 +9925,7 @@
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
       <c r="BB3" s="5" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -10134,23 +9972,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S4" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Y4" s="5" t="n"/>
       <c r="Z4" s="8" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -10179,13 +10007,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AM4" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AM4" s="5" t="n"/>
       <c r="AN4" s="5" t="n"/>
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
@@ -10194,11 +10016,7 @@
       <c r="AS4" s="5" t="n"/>
       <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
       <c r="AX4" s="5" t="n"/>
       <c r="AY4" s="5" t="n"/>
@@ -10266,13 +10084,7 @@
       </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AC5" s="5" t="n"/>
       <c r="AD5" s="5" t="n"/>
       <c r="AE5" s="5" t="n"/>
       <c r="AF5" s="5" t="n"/>
@@ -10281,18 +10093,8 @@
       <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM5" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AL5" s="5" t="n"/>
+      <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
       <c r="AP5" s="5" t="n"/>
@@ -10301,11 +10103,7 @@
       <c r="AS5" s="5" t="n"/>
       <c r="AT5" s="5" t="n"/>
       <c r="AU5" s="5" t="n"/>
-      <c r="AV5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV5" s="5" t="n"/>
       <c r="AW5" s="5" t="n"/>
       <c r="AX5" s="5" t="n"/>
       <c r="AY5" s="5" t="n"/>
@@ -10373,9 +10171,9 @@
       </c>
       <c r="AA6" s="5" t="n"/>
       <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="21" t="inlineStr">
-        <is>
-          <t>Elective (B)
+      <c r="AC6" s="7" t="inlineStr">
+        <is>
+          <t>Elective (A)
 (Elective)
 C403</t>
         </is>
@@ -10385,38 +10183,22 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
-      <c r="AI6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ6" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AI6" s="5" t="n"/>
+      <c r="AJ6" s="5" t="n"/>
       <c r="AK6" s="5" t="n"/>
-      <c r="AL6" s="5" t="n"/>
+      <c r="AL6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM6" s="5" t="n"/>
       <c r="AN6" s="5" t="n"/>
       <c r="AO6" s="5" t="n"/>
       <c r="AP6" s="5" t="n"/>
       <c r="AQ6" s="5" t="n"/>
       <c r="AR6" s="5" t="n"/>
-      <c r="AS6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AT6" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AS6" s="5" t="n"/>
+      <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
       <c r="AV6" s="5" t="n"/>
       <c r="AW6" s="5" t="n"/>
@@ -10425,64 +10207,42 @@
       <c r="AZ6" s="5" t="n"/>
       <c r="BA6" s="5" t="n"/>
       <c r="BB6" s="5" t="n"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="33">
     <mergeCell ref="O5:W5"/>
-    <mergeCell ref="AL5"/>
     <mergeCell ref="AI3"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="AS3"/>
     <mergeCell ref="AL4"/>
-    <mergeCell ref="AM5:AU5"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC4:AK4"/>
-    <mergeCell ref="AV5"/>
-    <mergeCell ref="AJ3:AR3"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AJ6:AR6"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="AV4"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AM4:AU4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="X2"/>
     <mergeCell ref="U6"/>
-    <mergeCell ref="BC6"/>
+    <mergeCell ref="AL6"/>
     <mergeCell ref="AL2"/>
     <mergeCell ref="H4"/>
     <mergeCell ref="I4:Q4"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="AC6:AH6"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="R4"/>
+    <mergeCell ref="AC6:AK6"/>
     <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="AV2"/>
-    <mergeCell ref="AI6"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AS6"/>
     <mergeCell ref="L2:W2"/>
     <mergeCell ref="N5"/>
-    <mergeCell ref="AM2:AU2"/>
     <mergeCell ref="X5"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AT6:BB6"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="BC3"/>
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AT3:BB3"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17989,13 +17749,23 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="S4" s="5" t="n"/>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+C403</t>
+        </is>
+      </c>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="5" t="n"/>
       <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
-      <c r="Y4" s="5" t="n"/>
+      <c r="Y4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Z4" s="8" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -18044,23 +17814,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AW4" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="AW4" s="5" t="n"/>
       <c r="AX4" s="5" t="n"/>
       <c r="AY4" s="5" t="n"/>
       <c r="AZ4" s="5" t="n"/>
       <c r="BA4" s="5" t="n"/>
       <c r="BB4" s="5" t="n"/>
-      <c r="BC4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC4" s="5" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -18292,7 +18052,6 @@
   <mergeCells count="49">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="BC4"/>
     <mergeCell ref="AC5:AN5"/>
     <mergeCell ref="AL4"/>
     <mergeCell ref="U5"/>
@@ -18303,9 +18062,9 @@
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="Y4"/>
     <mergeCell ref="AV4"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AY5"/>
     <mergeCell ref="AM4:AU4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="X2"/>
@@ -18323,6 +18082,7 @@
     <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="AV3"/>
+    <mergeCell ref="S4:X4"/>
     <mergeCell ref="AV2"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="Z6:AB6"/>
@@ -18338,7 +18098,7 @@
     <mergeCell ref="AO5"/>
     <mergeCell ref="AP5:AX5"/>
     <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="AY5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19579,7 +19339,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C403</t>
+TBD</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -19676,7 +19436,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C403</t>
+TBD</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -21331,7 +21091,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C403</t>
+TBD</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -21428,7 +21188,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C403</t>
+TBD</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDB5DB"/>
-        <bgColor rgb="00BDB5DB"/>
+        <fgColor rgb="00F0C2C8"/>
+        <bgColor rgb="00F0C2C8"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2C9DE"/>
-        <bgColor rgb="00D2C9DE"/>
+        <fgColor rgb="00CBBEE4"/>
+        <bgColor rgb="00CBBEE4"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,206 +115,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFC3EE"/>
-        <bgColor rgb="00BFC3EE"/>
+        <fgColor rgb="00E2C7BD"/>
+        <bgColor rgb="00E2C7BD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4C1EF"/>
-        <bgColor rgb="00E4C1EF"/>
+        <fgColor rgb="00CCBBD2"/>
+        <bgColor rgb="00CCBBD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8C2CC"/>
-        <bgColor rgb="00C8C2CC"/>
+        <fgColor rgb="00F0EBDB"/>
+        <bgColor rgb="00F0EBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD5BE"/>
-        <bgColor rgb="00EAD5BE"/>
+        <fgColor rgb="00DED7B6"/>
+        <bgColor rgb="00DED7B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CFEF"/>
-        <bgColor rgb="00D0CFEF"/>
+        <fgColor rgb="00DEC3E8"/>
+        <bgColor rgb="00DEC3E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1E9D2"/>
-        <bgColor rgb="00D1E9D2"/>
+        <fgColor rgb="00D7F0D9"/>
+        <bgColor rgb="00D7F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3D4C2"/>
-        <bgColor rgb="00C3D4C2"/>
+        <fgColor rgb="00B8E5E2"/>
+        <bgColor rgb="00B8E5E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDC4C5"/>
-        <bgColor rgb="00CDC4C5"/>
+        <fgColor rgb="00CEBDEA"/>
+        <bgColor rgb="00CEBDEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E5BD"/>
-        <bgColor rgb="00D5E5BD"/>
+        <fgColor rgb="00CCF0CD"/>
+        <bgColor rgb="00CCF0CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0BFC7"/>
-        <bgColor rgb="00C0BFC7"/>
+        <fgColor rgb="00CFEDCF"/>
+        <bgColor rgb="00CFEDCF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E1DC"/>
-        <bgColor rgb="00B9E1DC"/>
+        <fgColor rgb="00DCEABC"/>
+        <bgColor rgb="00DCEABC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DBD3DD"/>
-        <bgColor rgb="00DBD3DD"/>
+        <fgColor rgb="00E1C1EE"/>
+        <bgColor rgb="00E1C1EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5BDD1"/>
-        <bgColor rgb="00B5BDD1"/>
+        <fgColor rgb="00CEBBCC"/>
+        <bgColor rgb="00CEBBCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDB8E8"/>
-        <bgColor rgb="00EDB8E8"/>
+        <fgColor rgb="00CAE9BF"/>
+        <bgColor rgb="00CAE9BF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3E0E4"/>
-        <bgColor rgb="00C3E0E4"/>
+        <fgColor rgb="00B5E3C8"/>
+        <bgColor rgb="00B5E3C8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0DADC"/>
-        <bgColor rgb="00C0DADC"/>
+        <fgColor rgb="00E1E9B6"/>
+        <bgColor rgb="00E1E9B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2C7E3"/>
-        <bgColor rgb="00E2C7E3"/>
+        <fgColor rgb="00BABDC1"/>
+        <bgColor rgb="00BABDC1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDDFD3"/>
-        <bgColor rgb="00EDDFD3"/>
+        <fgColor rgb="00BCC7C2"/>
+        <bgColor rgb="00BCC7C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4C1C1"/>
-        <bgColor rgb="00E4C1C1"/>
+        <fgColor rgb="00CCD6D6"/>
+        <bgColor rgb="00CCD6D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6DEC3"/>
-        <bgColor rgb="00B6DEC3"/>
+        <fgColor rgb="00DFDAD5"/>
+        <bgColor rgb="00DFDAD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6B5D7"/>
-        <bgColor rgb="00C6B5D7"/>
+        <fgColor rgb="00DFBBD7"/>
+        <bgColor rgb="00DFBBD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4B9ED"/>
-        <bgColor rgb="00C4B9ED"/>
+        <fgColor rgb="00E4CFCF"/>
+        <bgColor rgb="00E4CFCF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7C0F0"/>
-        <bgColor rgb="00B7C0F0"/>
+        <fgColor rgb="00C4DDE8"/>
+        <bgColor rgb="00C4DDE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0D3DE"/>
-        <bgColor rgb="00F0D3DE"/>
+        <fgColor rgb="00B8DCD9"/>
+        <bgColor rgb="00B8DCD9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BAD3D9"/>
-        <bgColor rgb="00BAD3D9"/>
+        <fgColor rgb="00CDD2D1"/>
+        <bgColor rgb="00CDD2D1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6D0ED"/>
-        <bgColor rgb="00C6D0ED"/>
+        <fgColor rgb="00D4C1E4"/>
+        <bgColor rgb="00D4C1E4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFE0C9"/>
-        <bgColor rgb="00DFE0C9"/>
+        <fgColor rgb="00DECDD8"/>
+        <bgColor rgb="00DECDD8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EBBDCB"/>
-        <bgColor rgb="00EBBDCB"/>
+        <fgColor rgb="00CFEDBF"/>
+        <bgColor rgb="00CFEDBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5BBC8"/>
-        <bgColor rgb="00D5BBC8"/>
+        <fgColor rgb="00C0ECBC"/>
+        <bgColor rgb="00C0ECBC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6ECE8"/>
-        <bgColor rgb="00C6ECE8"/>
+        <fgColor rgb="00C8D0C8"/>
+        <bgColor rgb="00C8D0C8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9B5E8"/>
-        <bgColor rgb="00E9B5E8"/>
+        <fgColor rgb="00E9C4D4"/>
+        <bgColor rgb="00E9C4D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7CBCB"/>
-        <bgColor rgb="00B7CBCB"/>
+        <fgColor rgb="00D3BFD1"/>
+        <bgColor rgb="00D3BFD1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ECCEBC"/>
-        <bgColor rgb="00ECCEBC"/>
+        <fgColor rgb="00B4EEE1"/>
+        <bgColor rgb="00B4EEE1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCCADB"/>
-        <bgColor rgb="00CCCADB"/>
+        <fgColor rgb="00E9ECCA"/>
+        <bgColor rgb="00E9ECCA"/>
       </patternFill>
     </fill>
   </fills>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0C2C8"/>
-        <bgColor rgb="00F0C2C8"/>
+        <fgColor rgb="00CFD5B6"/>
+        <bgColor rgb="00CFD5B6"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBBEE4"/>
-        <bgColor rgb="00CBBEE4"/>
+        <fgColor rgb="00F0E6CC"/>
+        <bgColor rgb="00F0E6CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,206 +115,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2C7BD"/>
-        <bgColor rgb="00E2C7BD"/>
+        <fgColor rgb="00E6D2EB"/>
+        <bgColor rgb="00E6D2EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCBBD2"/>
-        <bgColor rgb="00CCBBD2"/>
+        <fgColor rgb="00BFC3DA"/>
+        <bgColor rgb="00BFC3DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0EBDB"/>
-        <bgColor rgb="00F0EBDB"/>
+        <fgColor rgb="00CFBEB7"/>
+        <bgColor rgb="00CFBEB7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DED7B6"/>
-        <bgColor rgb="00DED7B6"/>
+        <fgColor rgb="00CFE5CB"/>
+        <bgColor rgb="00CFE5CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEC3E8"/>
-        <bgColor rgb="00DEC3E8"/>
+        <fgColor rgb="00B7C9B4"/>
+        <bgColor rgb="00B7C9B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7F0D9"/>
-        <bgColor rgb="00D7F0D9"/>
+        <fgColor rgb="00DDECCC"/>
+        <bgColor rgb="00DDECCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8E5E2"/>
-        <bgColor rgb="00B8E5E2"/>
+        <fgColor rgb="00E2DCE0"/>
+        <bgColor rgb="00E2DCE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEBDEA"/>
-        <bgColor rgb="00CEBDEA"/>
+        <fgColor rgb="00C3CAC4"/>
+        <bgColor rgb="00C3CAC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCF0CD"/>
-        <bgColor rgb="00CCF0CD"/>
+        <fgColor rgb="00E5E2D4"/>
+        <bgColor rgb="00E5E2D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFEDCF"/>
-        <bgColor rgb="00CFEDCF"/>
+        <fgColor rgb="00C4EFC0"/>
+        <bgColor rgb="00C4EFC0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCEABC"/>
-        <bgColor rgb="00DCEABC"/>
+        <fgColor rgb="00C8E8BF"/>
+        <bgColor rgb="00C8E8BF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1C1EE"/>
-        <bgColor rgb="00E1C1EE"/>
+        <fgColor rgb="00B5CEEB"/>
+        <bgColor rgb="00B5CEEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEBBCC"/>
-        <bgColor rgb="00CEBBCC"/>
+        <fgColor rgb="00C3E7E6"/>
+        <bgColor rgb="00C3E7E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAE9BF"/>
-        <bgColor rgb="00CAE9BF"/>
+        <fgColor rgb="00D3BBE2"/>
+        <bgColor rgb="00D3BBE2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5E3C8"/>
-        <bgColor rgb="00B5E3C8"/>
+        <fgColor rgb="00C8CFC9"/>
+        <bgColor rgb="00C8CFC9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E9B6"/>
-        <bgColor rgb="00E1E9B6"/>
+        <fgColor rgb="00BFC2E9"/>
+        <bgColor rgb="00BFC2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BABDC1"/>
-        <bgColor rgb="00BABDC1"/>
+        <fgColor rgb="00B9E7C9"/>
+        <bgColor rgb="00B9E7C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCC7C2"/>
-        <bgColor rgb="00BCC7C2"/>
+        <fgColor rgb="00EEEDED"/>
+        <bgColor rgb="00EEEDED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCD6D6"/>
-        <bgColor rgb="00CCD6D6"/>
+        <fgColor rgb="00E2CFB9"/>
+        <bgColor rgb="00E2CFB9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFDAD5"/>
-        <bgColor rgb="00DFDAD5"/>
+        <fgColor rgb="00D6F0DC"/>
+        <bgColor rgb="00D6F0DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFBBD7"/>
-        <bgColor rgb="00DFBBD7"/>
+        <fgColor rgb="00E9E9EE"/>
+        <bgColor rgb="00E9E9EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4CFCF"/>
-        <bgColor rgb="00E4CFCF"/>
+        <fgColor rgb="00C7C0B8"/>
+        <bgColor rgb="00C7C0B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4DDE8"/>
-        <bgColor rgb="00C4DDE8"/>
+        <fgColor rgb="00CCE9B4"/>
+        <bgColor rgb="00CCE9B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8DCD9"/>
-        <bgColor rgb="00B8DCD9"/>
+        <fgColor rgb="00EDD4DC"/>
+        <bgColor rgb="00EDD4DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDD2D1"/>
-        <bgColor rgb="00CDD2D1"/>
+        <fgColor rgb="00D2E5BE"/>
+        <bgColor rgb="00D2E5BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4C1E4"/>
-        <bgColor rgb="00D4C1E4"/>
+        <fgColor rgb="00E3D9D8"/>
+        <bgColor rgb="00E3D9D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DECDD8"/>
-        <bgColor rgb="00DECDD8"/>
+        <fgColor rgb="00C8C5E1"/>
+        <bgColor rgb="00C8C5E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFEDBF"/>
-        <bgColor rgb="00CFEDBF"/>
+        <fgColor rgb="00DCB7E7"/>
+        <bgColor rgb="00DCB7E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0ECBC"/>
-        <bgColor rgb="00C0ECBC"/>
+        <fgColor rgb="00DFC6E7"/>
+        <bgColor rgb="00DFC6E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8D0C8"/>
-        <bgColor rgb="00C8D0C8"/>
+        <fgColor rgb="00B7D1E7"/>
+        <bgColor rgb="00B7D1E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9C4D4"/>
-        <bgColor rgb="00E9C4D4"/>
+        <fgColor rgb="00D9D0D8"/>
+        <bgColor rgb="00D9D0D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3BFD1"/>
-        <bgColor rgb="00D3BFD1"/>
+        <fgColor rgb="00B9E7B9"/>
+        <bgColor rgb="00B9E7B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4EEE1"/>
-        <bgColor rgb="00B4EEE1"/>
+        <fgColor rgb="00EAD4DC"/>
+        <bgColor rgb="00EAD4DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9ECCA"/>
-        <bgColor rgb="00E9ECCA"/>
+        <fgColor rgb="00B8C6DE"/>
+        <bgColor rgb="00B8C6DE"/>
       </patternFill>
     </fill>
   </fills>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFD5B6"/>
-        <bgColor rgb="00CFD5B6"/>
+        <fgColor rgb="00C1C7DC"/>
+        <bgColor rgb="00C1C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0E6CC"/>
-        <bgColor rgb="00F0E6CC"/>
+        <fgColor rgb="00E8B5C0"/>
+        <bgColor rgb="00E8B5C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,206 +115,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6D2EB"/>
-        <bgColor rgb="00E6D2EB"/>
+        <fgColor rgb="00CCE4E9"/>
+        <bgColor rgb="00CCE4E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFC3DA"/>
-        <bgColor rgb="00BFC3DA"/>
+        <fgColor rgb="00C9DCD2"/>
+        <bgColor rgb="00C9DCD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFBEB7"/>
-        <bgColor rgb="00CFBEB7"/>
+        <fgColor rgb="00DDC5D6"/>
+        <bgColor rgb="00DDC5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFE5CB"/>
-        <bgColor rgb="00CFE5CB"/>
+        <fgColor rgb="00E0C0C5"/>
+        <bgColor rgb="00E0C0C5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7C9B4"/>
-        <bgColor rgb="00B7C9B4"/>
+        <fgColor rgb="00E3C6E5"/>
+        <bgColor rgb="00E3C6E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDECCC"/>
-        <bgColor rgb="00DDECCC"/>
+        <fgColor rgb="00CDE3DA"/>
+        <bgColor rgb="00CDE3DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2DCE0"/>
-        <bgColor rgb="00E2DCE0"/>
+        <fgColor rgb="00EDE4E1"/>
+        <bgColor rgb="00EDE4E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3CAC4"/>
-        <bgColor rgb="00C3CAC4"/>
+        <fgColor rgb="00D9C7BC"/>
+        <bgColor rgb="00D9C7BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5E2D4"/>
-        <bgColor rgb="00E5E2D4"/>
+        <fgColor rgb="00BBC0E0"/>
+        <bgColor rgb="00BBC0E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4EFC0"/>
-        <bgColor rgb="00C4EFC0"/>
+        <fgColor rgb="00E9B8D5"/>
+        <bgColor rgb="00E9B8D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8E8BF"/>
-        <bgColor rgb="00C8E8BF"/>
+        <fgColor rgb="00C1B9D3"/>
+        <bgColor rgb="00C1B9D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5CEEB"/>
-        <bgColor rgb="00B5CEEB"/>
+        <fgColor rgb="00D4B6C1"/>
+        <bgColor rgb="00D4B6C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3E7E6"/>
-        <bgColor rgb="00C3E7E6"/>
+        <fgColor rgb="00E7C0C0"/>
+        <bgColor rgb="00E7C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3BBE2"/>
-        <bgColor rgb="00D3BBE2"/>
+        <fgColor rgb="00BDCBE7"/>
+        <bgColor rgb="00BDCBE7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8CFC9"/>
-        <bgColor rgb="00C8CFC9"/>
+        <fgColor rgb="00D2BED6"/>
+        <bgColor rgb="00D2BED6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFC2E9"/>
-        <bgColor rgb="00BFC2E9"/>
+        <fgColor rgb="00B5BECE"/>
+        <bgColor rgb="00B5BECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E7C9"/>
-        <bgColor rgb="00B9E7C9"/>
+        <fgColor rgb="00C0EBB8"/>
+        <bgColor rgb="00C0EBB8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEEDED"/>
-        <bgColor rgb="00EEEDED"/>
+        <fgColor rgb="00B5C6B9"/>
+        <bgColor rgb="00B5C6B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2CFB9"/>
-        <bgColor rgb="00E2CFB9"/>
+        <fgColor rgb="00B7E6D9"/>
+        <bgColor rgb="00B7E6D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6F0DC"/>
-        <bgColor rgb="00D6F0DC"/>
+        <fgColor rgb="00DAC0DB"/>
+        <bgColor rgb="00DAC0DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9E9EE"/>
-        <bgColor rgb="00E9E9EE"/>
+        <fgColor rgb="00E2B5C6"/>
+        <bgColor rgb="00E2B5C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7C0B8"/>
-        <bgColor rgb="00C7C0B8"/>
+        <fgColor rgb="00D4E4C0"/>
+        <bgColor rgb="00D4E4C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE9B4"/>
-        <bgColor rgb="00CCE9B4"/>
+        <fgColor rgb="00E1E6E3"/>
+        <bgColor rgb="00E1E6E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDD4DC"/>
-        <bgColor rgb="00EDD4DC"/>
+        <fgColor rgb="00EBE2D7"/>
+        <bgColor rgb="00EBE2D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2E5BE"/>
-        <bgColor rgb="00D2E5BE"/>
+        <fgColor rgb="00C4F0DA"/>
+        <bgColor rgb="00C4F0DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3D9D8"/>
-        <bgColor rgb="00E3D9D8"/>
+        <fgColor rgb="00C1B5EB"/>
+        <bgColor rgb="00C1B5EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8C5E1"/>
-        <bgColor rgb="00C8C5E1"/>
+        <fgColor rgb="00B6D3CD"/>
+        <bgColor rgb="00B6D3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCB7E7"/>
-        <bgColor rgb="00DCB7E7"/>
+        <fgColor rgb="00B6B6D0"/>
+        <bgColor rgb="00B6B6D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFC6E7"/>
-        <bgColor rgb="00DFC6E7"/>
+        <fgColor rgb="00E2BBDE"/>
+        <bgColor rgb="00E2BBDE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7D1E7"/>
-        <bgColor rgb="00B7D1E7"/>
+        <fgColor rgb="00B6D2E5"/>
+        <bgColor rgb="00B6D2E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D0D8"/>
-        <bgColor rgb="00D9D0D8"/>
+        <fgColor rgb="00C7B8DC"/>
+        <bgColor rgb="00C7B8DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E7B9"/>
-        <bgColor rgb="00B9E7B9"/>
+        <fgColor rgb="00DEEBC3"/>
+        <bgColor rgb="00DEEBC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD4DC"/>
-        <bgColor rgb="00EAD4DC"/>
+        <fgColor rgb="00CAB7B9"/>
+        <bgColor rgb="00CAB7B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8C6DE"/>
-        <bgColor rgb="00B8C6DE"/>
+        <fgColor rgb="00EDCFC1"/>
+        <bgColor rgb="00EDCFC1"/>
       </patternFill>
     </fill>
   </fills>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1C7DC"/>
-        <bgColor rgb="00C1C7DC"/>
+        <fgColor rgb="00C2EFC5"/>
+        <bgColor rgb="00C2EFC5"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8B5C0"/>
-        <bgColor rgb="00E8B5C0"/>
+        <fgColor rgb="00C1D2DE"/>
+        <bgColor rgb="00C1D2DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,206 +115,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE4E9"/>
-        <bgColor rgb="00CCE4E9"/>
+        <fgColor rgb="00BCB9F0"/>
+        <bgColor rgb="00BCB9F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C9DCD2"/>
-        <bgColor rgb="00C9DCD2"/>
+        <fgColor rgb="00C5C0BB"/>
+        <bgColor rgb="00C5C0BB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDC5D6"/>
-        <bgColor rgb="00DDC5D6"/>
+        <fgColor rgb="00B6BABF"/>
+        <bgColor rgb="00B6BABF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0C0C5"/>
-        <bgColor rgb="00E0C0C5"/>
+        <fgColor rgb="00D3E8E8"/>
+        <bgColor rgb="00D3E8E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3C6E5"/>
-        <bgColor rgb="00E3C6E5"/>
+        <fgColor rgb="00EED7C6"/>
+        <bgColor rgb="00EED7C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDE3DA"/>
-        <bgColor rgb="00CDE3DA"/>
+        <fgColor rgb="00E9B6C6"/>
+        <bgColor rgb="00E9B6C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDE4E1"/>
-        <bgColor rgb="00EDE4E1"/>
+        <fgColor rgb="00B5EFD1"/>
+        <bgColor rgb="00B5EFD1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9C7BC"/>
-        <bgColor rgb="00D9C7BC"/>
+        <fgColor rgb="00CECEE4"/>
+        <bgColor rgb="00CECEE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBC0E0"/>
-        <bgColor rgb="00BBC0E0"/>
+        <fgColor rgb="00BAC9BC"/>
+        <bgColor rgb="00BAC9BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9B8D5"/>
-        <bgColor rgb="00E9B8D5"/>
+        <fgColor rgb="00BAECCC"/>
+        <bgColor rgb="00BAECCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1B9D3"/>
-        <bgColor rgb="00C1B9D3"/>
+        <fgColor rgb="00D6E4E4"/>
+        <bgColor rgb="00D6E4E4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4B6C1"/>
-        <bgColor rgb="00D4B6C1"/>
+        <fgColor rgb="00DEEBE0"/>
+        <bgColor rgb="00DEEBE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7C0C0"/>
-        <bgColor rgb="00E7C0C0"/>
+        <fgColor rgb="00B6B9D3"/>
+        <bgColor rgb="00B6B9D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDCBE7"/>
-        <bgColor rgb="00BDCBE7"/>
+        <fgColor rgb="00CCD3E3"/>
+        <bgColor rgb="00CCD3E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2BED6"/>
-        <bgColor rgb="00D2BED6"/>
+        <fgColor rgb="00CBC5E8"/>
+        <bgColor rgb="00CBC5E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5BECE"/>
-        <bgColor rgb="00B5BECE"/>
+        <fgColor rgb="00E5B4BE"/>
+        <bgColor rgb="00E5B4BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0EBB8"/>
-        <bgColor rgb="00C0EBB8"/>
+        <fgColor rgb="00E0CDBB"/>
+        <bgColor rgb="00E0CDBB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5C6B9"/>
-        <bgColor rgb="00B5C6B9"/>
+        <fgColor rgb="00B5B6DB"/>
+        <bgColor rgb="00B5B6DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7E6D9"/>
-        <bgColor rgb="00B7E6D9"/>
+        <fgColor rgb="00B9EFC4"/>
+        <bgColor rgb="00B9EFC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAC0DB"/>
-        <bgColor rgb="00DAC0DB"/>
+        <fgColor rgb="00E3D9B8"/>
+        <bgColor rgb="00E3D9B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2B5C6"/>
-        <bgColor rgb="00E2B5C6"/>
+        <fgColor rgb="00D0DEDB"/>
+        <bgColor rgb="00D0DEDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4E4C0"/>
-        <bgColor rgb="00D4E4C0"/>
+        <fgColor rgb="00CDB5E6"/>
+        <bgColor rgb="00CDB5E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E6E3"/>
-        <bgColor rgb="00E1E6E3"/>
+        <fgColor rgb="00C1EDBD"/>
+        <bgColor rgb="00C1EDBD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EBE2D7"/>
-        <bgColor rgb="00EBE2D7"/>
+        <fgColor rgb="00BEBCC5"/>
+        <bgColor rgb="00BEBCC5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4F0DA"/>
-        <bgColor rgb="00C4F0DA"/>
+        <fgColor rgb="00BAD1E1"/>
+        <bgColor rgb="00BAD1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1B5EB"/>
-        <bgColor rgb="00C1B5EB"/>
+        <fgColor rgb="00D0C9E9"/>
+        <bgColor rgb="00D0C9E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6D3CD"/>
-        <bgColor rgb="00B6D3CD"/>
+        <fgColor rgb="00C8D0C0"/>
+        <bgColor rgb="00C8D0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6B6D0"/>
-        <bgColor rgb="00B6B6D0"/>
+        <fgColor rgb="00E7CCD5"/>
+        <bgColor rgb="00E7CCD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2BBDE"/>
-        <bgColor rgb="00E2BBDE"/>
+        <fgColor rgb="00EBD4D3"/>
+        <bgColor rgb="00EBD4D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6D2E5"/>
-        <bgColor rgb="00B6D2E5"/>
+        <fgColor rgb="00D8E1E0"/>
+        <bgColor rgb="00D8E1E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7B8DC"/>
-        <bgColor rgb="00C7B8DC"/>
+        <fgColor rgb="00B9D2CF"/>
+        <bgColor rgb="00B9D2CF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEEBC3"/>
-        <bgColor rgb="00DEEBC3"/>
+        <fgColor rgb="00CED9EB"/>
+        <bgColor rgb="00CED9EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAB7B9"/>
-        <bgColor rgb="00CAB7B9"/>
+        <fgColor rgb="00F0C0C7"/>
+        <bgColor rgb="00F0C0C7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDCFC1"/>
-        <bgColor rgb="00EDCFC1"/>
+        <fgColor rgb="00E4B4B8"/>
+        <bgColor rgb="00E4B4B8"/>
       </patternFill>
     </fill>
   </fills>
@@ -2964,12 +2964,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="23" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-Krishnendu
-C101</t>
+      <c r="L2" s="24" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+Animesh Roy
+L105</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -2980,14 +2980,14 @@
       <c r="R2" s="5" t="n"/>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="5" t="n"/>
-      <c r="X2" s="5" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="5" t="n"/>
       <c r="Z2" s="5" t="n"/>
       <c r="AA2" s="5" t="n"/>
@@ -2999,23 +2999,27 @@
       </c>
       <c r="AD2" s="5" t="n"/>
       <c r="AE2" s="5" t="n"/>
-      <c r="AF2" s="5" t="n"/>
+      <c r="AF2" s="23" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+Krishnendu
+C101</t>
+        </is>
+      </c>
       <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="5" t="n"/>
       <c r="AI2" s="5" t="n"/>
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
-      <c r="AM2" s="24" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-Animesh Roy
-L105</t>
-        </is>
-      </c>
+      <c r="AM2" s="5" t="n"/>
       <c r="AN2" s="5" t="n"/>
-      <c r="AO2" s="5" t="n"/>
+      <c r="AO2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP2" s="5" t="n"/>
       <c r="AQ2" s="5" t="n"/>
       <c r="AR2" s="5" t="n"/>
@@ -3025,11 +3029,7 @@
       <c r="AV2" s="5" t="n"/>
       <c r="AW2" s="5" t="n"/>
       <c r="AX2" s="5" t="n"/>
-      <c r="AY2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AY2" s="5" t="n"/>
       <c r="AZ2" s="5" t="n"/>
       <c r="BA2" s="5" t="n"/>
       <c r="BB2" s="5" t="n"/>
@@ -3082,24 +3082,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="V3" s="25" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-Sunil C K
-C101</t>
-        </is>
-      </c>
+      <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="8" t="inlineStr">
         <is>
           <t>LUNCH</t>
@@ -3117,13 +3106,24 @@
       <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
-      <c r="AP3" s="5" t="n"/>
+      <c r="AP3" s="25" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+Sunil C K
+C101</t>
+        </is>
+      </c>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
       <c r="AS3" s="5" t="n"/>
       <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
-      <c r="AV3" s="5" t="n"/>
+      <c r="AV3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
       <c r="AY3" s="5" t="n"/>
@@ -3172,11 +3172,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="P4" s="23" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-Krishnendu
+      <c r="P4" s="25" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+Sunil C K
 C101</t>
         </is>
       </c>
@@ -3185,14 +3185,14 @@
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="5" t="n"/>
-      <c r="V4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="V4" s="5" t="n"/>
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
-      <c r="Y4" s="5" t="n"/>
+      <c r="Y4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Z4" s="5" t="n"/>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
@@ -3203,21 +3203,25 @@
       </c>
       <c r="AD4" s="5" t="n"/>
       <c r="AE4" s="5" t="n"/>
-      <c r="AF4" s="5" t="n"/>
+      <c r="AF4" s="23" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+Krishnendu
+C101</t>
+        </is>
+      </c>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
       <c r="AI4" s="5" t="n"/>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
-      <c r="AL4" s="5" t="n"/>
-      <c r="AM4" s="25" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-Sunil C K
-C101</t>
-        </is>
-      </c>
+      <c r="AL4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AM4" s="5" t="n"/>
       <c r="AN4" s="5" t="n"/>
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
@@ -3226,11 +3230,7 @@
       <c r="AS4" s="5" t="n"/>
       <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="5" t="n"/>
       <c r="AW4" s="5" t="n"/>
       <c r="AX4" s="5" t="n"/>
       <c r="AY4" s="5" t="n"/>
@@ -3265,11 +3265,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="24" t="inlineStr">
-        <is>
-          <t>Computer Networks
+      <c r="L5" s="23" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-Animesh Roy
+Krishnendu
 C101</t>
         </is>
       </c>
@@ -3300,11 +3300,11 @@
       </c>
       <c r="AD5" s="5" t="n"/>
       <c r="AE5" s="5" t="n"/>
-      <c r="AF5" s="23" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
+      <c r="AF5" s="24" t="inlineStr">
+        <is>
+          <t>Computer Networks
 (Lecture)
-Krishnendu
+Animesh Roy
 C101</t>
         </is>
       </c>
@@ -3439,14 +3439,17 @@
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="AF6:AK6"/>
     <mergeCell ref="AV6"/>
+    <mergeCell ref="AL4"/>
     <mergeCell ref="U5"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AB3"/>
-    <mergeCell ref="AV4"/>
+    <mergeCell ref="AF2:AN2"/>
+    <mergeCell ref="Y4"/>
     <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="AM4:AU4"/>
+    <mergeCell ref="AO2"/>
+    <mergeCell ref="AF4:AK4"/>
+    <mergeCell ref="X2"/>
     <mergeCell ref="AL6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:N4"/>
@@ -3456,20 +3459,17 @@
     <mergeCell ref="AM6:AU6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="V4"/>
+    <mergeCell ref="AV3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="AP3:AU3"/>
     <mergeCell ref="O4"/>
-    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="P4:X4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="U3"/>
     <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="AO5"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="AY2"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
@@ -8919,14 +8919,14 @@
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="8" t="inlineStr">
         <is>
@@ -8935,11 +8935,11 @@
       </c>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
+      <c r="Z2" s="29" t="inlineStr">
+        <is>
+          <t>Economics/IET
 (Lecture)
-Animesh Roy
+Anushree Kini
 C403</t>
         </is>
       </c>
@@ -9004,13 +9004,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-TBD</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
@@ -9019,11 +9013,7 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="8" t="inlineStr">
         <is>
@@ -9032,12 +9022,12 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="29" t="inlineStr">
-        <is>
-          <t>Economics/IET
-(Lecture)
-Anushree Kini
-C403</t>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Practical)
+Animesh Roy
+L105</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -9048,14 +9038,14 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
-      <c r="AL3" s="5" t="n"/>
+      <c r="AL3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
@@ -9199,7 +9189,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n"/>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Lecture)
+Animesh Roy
+C403</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -9208,7 +9205,11 @@
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="8" t="inlineStr">
         <is>
@@ -9217,14 +9218,7 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
-(Practical)
-Animesh Roy
-L105</t>
-        </is>
-      </c>
+      <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="5" t="n"/>
@@ -9236,11 +9230,7 @@
       <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
@@ -9347,17 +9337,17 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="AL5"/>
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AI3"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="R2"/>
     <mergeCell ref="AI2"/>
-    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z3:AK3"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:T4"/>
@@ -9369,15 +9359,13 @@
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AI4"/>
-    <mergeCell ref="U3"/>
+    <mergeCell ref="AL3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16642,11 +16630,11 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
+      <c r="B2" s="29" t="inlineStr">
+        <is>
+          <t>Economics/IET
 (Lecture)
-Manjunath
+Anushree Kini
 C403</t>
         </is>
       </c>
@@ -16675,14 +16663,14 @@
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="8" t="inlineStr">
         <is>
@@ -16739,12 +16727,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="29" t="inlineStr">
-        <is>
-          <t>Economics/IET
-(Lecture)
-Anushree Kini
-C403</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Practical)
+Manjunath
+L105</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -16755,31 +16743,21 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-TBD</t>
-        </is>
-      </c>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="8" t="inlineStr">
         <is>
@@ -16937,9 +16915,9 @@
       <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Problem Solving with Python
-(Practical)
+(Lecture)
 Manjunath
-L105</t>
+C403</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -16950,14 +16928,14 @@
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
@@ -17103,10 +17081,11 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AI3"/>
     <mergeCell ref="AL4"/>
+    <mergeCell ref="R2"/>
     <mergeCell ref="AI2"/>
     <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="L4:Q4"/>
@@ -17114,26 +17093,23 @@
     <mergeCell ref="K6"/>
     <mergeCell ref="AI5"/>
     <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="K3"/>
     <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="K5"/>
     <mergeCell ref="Z4:AK4"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="R4"/>
-    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="N3"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AI6"/>
-    <mergeCell ref="U2"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="N5"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="B3:M3"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="U3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20268,14 +20244,14 @@
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="8" t="inlineStr">
         <is>
@@ -20353,13 +20329,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
@@ -20368,11 +20338,7 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="8" t="inlineStr">
         <is>
@@ -20381,12 +20347,12 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="10" t="inlineStr">
-        <is>
-          <t>English Language and Communication
-(Lecture)
-Rajesh N S
-C101</t>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Practical)
+Sunil P V
+L105</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -20397,14 +20363,14 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
-      <c r="AL3" s="5" t="n"/>
+      <c r="AL3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
@@ -20479,11 +20445,11 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
+      <c r="Z4" s="10" t="inlineStr">
+        <is>
+          <t>English Language and Communication
 (Lecture)
-Sunil P V
+Rajesh N S
 C101</t>
         </is>
       </c>
@@ -20548,7 +20514,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n"/>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Lecture)
+Sunil P V
+C101</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -20557,7 +20530,11 @@
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="8" t="inlineStr">
         <is>
@@ -20566,14 +20543,7 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
-(Practical)
-Sunil P V
-L105</t>
-        </is>
-      </c>
+      <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="5" t="n"/>
@@ -20585,11 +20555,7 @@
       <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
@@ -20696,16 +20662,16 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="AL5"/>
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AI3"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="R2"/>
     <mergeCell ref="AI2"/>
-    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z3:AK3"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:N4"/>
@@ -20717,16 +20683,14 @@
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="O4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AI4"/>
-    <mergeCell ref="U3"/>
+    <mergeCell ref="AL3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22107,7 +22071,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-TBD</t>
+C403</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -22131,14 +22095,7 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="42" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-Animesh, Pramod
-C004</t>
-        </is>
-      </c>
+      <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="5" t="n"/>
@@ -22147,11 +22104,7 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
@@ -22161,7 +22114,14 @@
       <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
-      <c r="AS3" s="5" t="n"/>
+      <c r="AS3" s="42" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+Animesh, Pramod
+C004</t>
+        </is>
+      </c>
       <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
       <c r="AV3" s="5" t="n"/>
@@ -22170,7 +22130,11 @@
       <c r="AY3" s="5" t="n"/>
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
-      <c r="BB3" s="5" t="n"/>
+      <c r="BB3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
@@ -22463,9 +22427,7 @@
   <mergeCells count="35">
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AI3"/>
     <mergeCell ref="AI2"/>
-    <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="R5"/>
@@ -22474,6 +22436,7 @@
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
+    <mergeCell ref="BB3"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="H4"/>
     <mergeCell ref="Z4:AH4"/>
@@ -22481,6 +22444,7 @@
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="R4"/>
     <mergeCell ref="B5:J5"/>
+    <mergeCell ref="AS3:BA3"/>
     <mergeCell ref="AF5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
@@ -22975,7 +22939,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-TBD</t>
+C403</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -22999,14 +22963,7 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="42" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-Animesh, Pramod
-C004</t>
-        </is>
-      </c>
+      <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="5" t="n"/>
@@ -23015,11 +22972,7 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
       <c r="AL3" s="5" t="n"/>
@@ -23029,7 +22982,14 @@
       <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
-      <c r="AS3" s="5" t="n"/>
+      <c r="AS3" s="42" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+Animesh, Pramod
+C004</t>
+        </is>
+      </c>
       <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
       <c r="AV3" s="5" t="n"/>
@@ -23038,7 +22998,11 @@
       <c r="AY3" s="5" t="n"/>
       <c r="AZ3" s="5" t="n"/>
       <c r="BA3" s="5" t="n"/>
-      <c r="BB3" s="5" t="n"/>
+      <c r="BB3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BC3" s="5" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
@@ -23331,9 +23295,7 @@
   <mergeCells count="35">
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AI3"/>
     <mergeCell ref="AI2"/>
-    <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="R5"/>
@@ -23342,6 +23304,7 @@
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
+    <mergeCell ref="BB3"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="H4"/>
     <mergeCell ref="Z4:AH4"/>
@@ -23349,6 +23312,7 @@
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="R4"/>
     <mergeCell ref="B5:J5"/>
+    <mergeCell ref="AS3:BA3"/>
     <mergeCell ref="AF5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
@@ -23756,14 +23720,14 @@
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
       <c r="W2" s="8" t="inlineStr">
         <is>
@@ -23841,13 +23805,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-C403</t>
-        </is>
-      </c>
+      <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
@@ -23856,11 +23814,7 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="8" t="inlineStr">
         <is>
@@ -23869,7 +23823,14 @@
       </c>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="5" t="n"/>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Practical)
+Sunil C K
+L105</t>
+        </is>
+      </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="5" t="n"/>
@@ -23881,15 +23842,12 @@
       <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
-      <c r="AL3" s="5" t="n"/>
-      <c r="AM3" s="10" t="inlineStr">
-        <is>
-          <t>English Language and Communication
-(Lecture)
-Rajesh N S
-C101</t>
-        </is>
-      </c>
+      <c r="AL3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
       <c r="AO3" s="5" t="n"/>
       <c r="AP3" s="5" t="n"/>
@@ -23898,11 +23856,7 @@
       <c r="AS3" s="5" t="n"/>
       <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
-      <c r="AV3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
       <c r="AY3" s="5" t="n"/>
@@ -23967,14 +23921,7 @@
       </c>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
-(Lecture)
-Sunil C K
-C101</t>
-        </is>
-      </c>
+      <c r="Z4" s="5" t="n"/>
       <c r="AA4" s="5" t="n"/>
       <c r="AB4" s="5" t="n"/>
       <c r="AC4" s="5" t="n"/>
@@ -23983,15 +23930,18 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
-      <c r="AI4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI4" s="5" t="n"/>
       <c r="AJ4" s="5" t="n"/>
       <c r="AK4" s="5" t="n"/>
       <c r="AL4" s="5" t="n"/>
-      <c r="AM4" s="5" t="n"/>
+      <c r="AM4" s="10" t="inlineStr">
+        <is>
+          <t>English Language and Communication
+(Lecture)
+Rajesh N S
+C101</t>
+        </is>
+      </c>
       <c r="AN4" s="5" t="n"/>
       <c r="AO4" s="5" t="n"/>
       <c r="AP4" s="5" t="n"/>
@@ -24000,7 +23950,11 @@
       <c r="AS4" s="5" t="n"/>
       <c r="AT4" s="5" t="n"/>
       <c r="AU4" s="5" t="n"/>
-      <c r="AV4" s="5" t="n"/>
+      <c r="AV4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW4" s="5" t="n"/>
       <c r="AX4" s="5" t="n"/>
       <c r="AY4" s="5" t="n"/>
@@ -24036,7 +23990,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n"/>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>Problem Solving with Python
+(Lecture)
+Sunil C K
+C101</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
@@ -24045,7 +24006,11 @@
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="5" t="n"/>
       <c r="W5" s="8" t="inlineStr">
         <is>
@@ -24054,14 +24019,7 @@
       </c>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving with Python
-(Practical)
-Sunil C K
-L105</t>
-        </is>
-      </c>
+      <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="5" t="n"/>
@@ -24073,11 +24031,7 @@
       <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
@@ -24184,37 +24138,35 @@
       <c r="BC6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="AL5"/>
+  <mergeCells count="29">
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="R2"/>
+    <mergeCell ref="Z3:AK3"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="AV4"/>
+    <mergeCell ref="AM4:AU4"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="H4"/>
-    <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AM3:AU3"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="AV3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AV2"/>
-    <mergeCell ref="U2"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="L2:T2"/>
     <mergeCell ref="O4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="AI4"/>
-    <mergeCell ref="U3"/>
+    <mergeCell ref="AL3"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26492,12 +26444,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>Software Design
+      <c r="B3" s="19" t="inlineStr">
+        <is>
+          <t>Differential Equations
 (Lecture)
-Sunil P V
-C101</t>
+Anand B
+C004</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -26513,12 +26465,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-Malay
-L105</t>
+      <c r="L3" s="15" t="inlineStr">
+        <is>
+          <t>Software Design
+(Lecture)
+Sunil P V
+C101</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -26529,14 +26481,14 @@
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="8" t="inlineStr">
         <is>
@@ -26545,12 +26497,12 @@
       </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="19" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-Anand B
-C004</t>
+      <c r="AC3" s="16" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+Malay
+L105</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -26561,12 +26513,15 @@
       <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM3" s="17" t="inlineStr">
+      <c r="AL3" s="5" t="n"/>
+      <c r="AM3" s="5" t="n"/>
+      <c r="AN3" s="5" t="n"/>
+      <c r="AO3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AP3" s="17" t="inlineStr">
         <is>
           <t>Computer Networks
 (Tutorial)
@@ -26574,19 +26529,16 @@
 C101</t>
         </is>
       </c>
-      <c r="AN3" s="5" t="n"/>
-      <c r="AO3" s="5" t="n"/>
-      <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
-      <c r="AS3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS3" s="5" t="n"/>
       <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
-      <c r="AV3" s="5" t="n"/>
+      <c r="AV3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
       <c r="AY3" s="5" t="n"/>
@@ -26761,11 +26713,11 @@
       </c>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="21" t="inlineStr">
-        <is>
-          <t>Operating Systems
-(Lecture)
-Suvadip Hazra
+      <c r="AC5" s="15" t="inlineStr">
+        <is>
+          <t>Software Design
+(Tutorial)
+Sunil P V
 C101</t>
         </is>
       </c>
@@ -26774,35 +26726,35 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AI5" s="5" t="n"/>
-      <c r="AJ5" s="5" t="n"/>
+      <c r="AI5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AJ5" s="21" t="inlineStr">
+        <is>
+          <t>Operating Systems
+(Lecture)
+Suvadip Hazra
+C101</t>
+        </is>
+      </c>
       <c r="AK5" s="5" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
-      <c r="AP5" s="15" t="inlineStr">
-        <is>
-          <t>Software Design
-(Tutorial)
-Sunil P V
-C101</t>
-        </is>
-      </c>
+      <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
-      <c r="AS5" s="5" t="n"/>
+      <c r="AS5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT5" s="5" t="n"/>
       <c r="AU5" s="5" t="n"/>
-      <c r="AV5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV5" s="5" t="n"/>
       <c r="AW5" s="5" t="n"/>
       <c r="AX5" s="5" t="n"/>
       <c r="AY5" s="5" t="n"/>
@@ -26922,21 +26874,21 @@
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AL5"/>
+    <mergeCell ref="AC5:AH5"/>
     <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="AV6"/>
-    <mergeCell ref="AS3"/>
     <mergeCell ref="AL4"/>
     <mergeCell ref="U5"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC4:AK4"/>
-    <mergeCell ref="AV5"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AI5"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="AS5"/>
     <mergeCell ref="Y4"/>
     <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="X2"/>
     <mergeCell ref="U6"/>
@@ -26947,25 +26899,25 @@
     <mergeCell ref="H4"/>
     <mergeCell ref="I4:Q4"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="AM3:AR3"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="R4"/>
     <mergeCell ref="AC6:AK6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="AM6:AU6"/>
     <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AV3"/>
+    <mergeCell ref="AO3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="AV2"/>
     <mergeCell ref="Z6:AB6"/>
     <mergeCell ref="N2"/>
     <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="X3"/>
+    <mergeCell ref="AP3:AU3"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="AC3:AN3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27434,12 +27386,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-Pramod
-L105</t>
+      <c r="B3" s="19" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+Anand B
+C004</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -27450,35 +27402,35 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="15" t="inlineStr">
+        <is>
+          <t>Software Design
+(Lecture)
+Vivekraj
+C101</t>
+        </is>
+      </c>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="O3" s="17" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-Prabhu Prasad B M
-C101</t>
-        </is>
-      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
       <c r="Z3" s="8" t="inlineStr">
         <is>
@@ -27487,12 +27439,12 @@
       </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="19" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-Anand B
-C004</t>
+      <c r="AC3" s="16" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+Pramod
+L105</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -27503,32 +27455,21 @@
       <c r="AI3" s="5" t="n"/>
       <c r="AJ3" s="5" t="n"/>
       <c r="AK3" s="5" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM3" s="15" t="inlineStr">
-        <is>
-          <t>Software Design
-(Lecture)
-Vivekraj
-C101</t>
-        </is>
-      </c>
+      <c r="AL3" s="5" t="n"/>
+      <c r="AM3" s="5" t="n"/>
       <c r="AN3" s="5" t="n"/>
-      <c r="AO3" s="5" t="n"/>
+      <c r="AO3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP3" s="5" t="n"/>
       <c r="AQ3" s="5" t="n"/>
       <c r="AR3" s="5" t="n"/>
       <c r="AS3" s="5" t="n"/>
       <c r="AT3" s="5" t="n"/>
       <c r="AU3" s="5" t="n"/>
-      <c r="AV3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV3" s="5" t="n"/>
       <c r="AW3" s="5" t="n"/>
       <c r="AX3" s="5" t="n"/>
       <c r="AY3" s="5" t="n"/>
@@ -27732,33 +27673,33 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AJ5" s="5" t="n"/>
+      <c r="AJ5" s="17" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+Prabhu Prasad B M
+C101</t>
+        </is>
+      </c>
       <c r="AK5" s="5" t="n"/>
       <c r="AL5" s="5" t="n"/>
       <c r="AM5" s="5" t="n"/>
       <c r="AN5" s="5" t="n"/>
       <c r="AO5" s="5" t="n"/>
-      <c r="AP5" s="21" t="inlineStr">
-        <is>
-          <t>Operating Systems
-(Lecture)
-Suvadip Hazra
-C101</t>
-        </is>
-      </c>
+      <c r="AP5" s="5" t="n"/>
       <c r="AQ5" s="5" t="n"/>
       <c r="AR5" s="5" t="n"/>
-      <c r="AS5" s="5" t="n"/>
+      <c r="AS5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT5" s="5" t="n"/>
       <c r="AU5" s="5" t="n"/>
       <c r="AV5" s="5" t="n"/>
       <c r="AW5" s="5" t="n"/>
       <c r="AX5" s="5" t="n"/>
-      <c r="AY5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AY5" s="5" t="n"/>
       <c r="AZ5" s="5" t="n"/>
       <c r="BA5" s="5" t="n"/>
       <c r="BB5" s="5" t="n"/>
@@ -27843,7 +27784,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AM6" s="5" t="n"/>
+      <c r="AM6" s="21" t="inlineStr">
+        <is>
+          <t>Operating Systems
+(Lecture)
+Suvadip Hazra
+C101</t>
+        </is>
+      </c>
       <c r="AN6" s="5" t="n"/>
       <c r="AO6" s="5" t="n"/>
       <c r="AP6" s="5" t="n"/>
@@ -27852,7 +27800,11 @@
       <c r="AS6" s="5" t="n"/>
       <c r="AT6" s="5" t="n"/>
       <c r="AU6" s="5" t="n"/>
-      <c r="AV6" s="5" t="n"/>
+      <c r="AV6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW6" s="5" t="n"/>
       <c r="AX6" s="5" t="n"/>
       <c r="AY6" s="5" t="n"/>
@@ -27865,15 +27817,18 @@
   <mergeCells count="45">
     <mergeCell ref="AC5:AH5"/>
     <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AV6"/>
     <mergeCell ref="U5"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC4:AH4"/>
     <mergeCell ref="K6"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="AS5"/>
     <mergeCell ref="Y4"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AY5"/>
+    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="U6"/>
     <mergeCell ref="AL6"/>
@@ -27885,29 +27840,26 @@
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="R4"/>
     <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AM3:AU3"/>
     <mergeCell ref="B5:J5"/>
+    <mergeCell ref="AM6:AU6"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="AV3"/>
+    <mergeCell ref="AO3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="AY4"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="AP4:AX4"/>
     <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="O3:W3"/>
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="X3"/>
     <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B3:J3"/>
     <mergeCell ref="AI4"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="AP5:AX5"/>
+    <mergeCell ref="U3"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="AY2"/>
-    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="AC3:AN3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2CDCB"/>
-        <bgColor rgb="00D2CDCB"/>
+        <fgColor rgb="00BED5BE"/>
+        <bgColor rgb="00BED5BE"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9BABB"/>
-        <bgColor rgb="00D9BABB"/>
+        <fgColor rgb="00CBC8EC"/>
+        <bgColor rgb="00CBC8EC"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,200 +115,200 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCC6B8"/>
-        <bgColor rgb="00CCC6B8"/>
+        <fgColor rgb="00E4E1CC"/>
+        <bgColor rgb="00E4E1CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBE4DD"/>
-        <bgColor rgb="00CBE4DD"/>
+        <fgColor rgb="00E6CBCA"/>
+        <bgColor rgb="00E6CBCA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2C2CB"/>
-        <bgColor rgb="00E2C2CB"/>
+        <fgColor rgb="00BEBEE1"/>
+        <bgColor rgb="00BEBEE1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFB8D2"/>
-        <bgColor rgb="00CFB8D2"/>
+        <fgColor rgb="00D8E1D4"/>
+        <bgColor rgb="00D8E1D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDDCE0"/>
-        <bgColor rgb="00CDDCE0"/>
+        <fgColor rgb="00C4D3E7"/>
+        <bgColor rgb="00C4D3E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E1C9"/>
-        <bgColor rgb="00D5E1C9"/>
+        <fgColor rgb="00B4EFE8"/>
+        <bgColor rgb="00B4EFE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFB5D2"/>
-        <bgColor rgb="00CFB5D2"/>
+        <fgColor rgb="00C2CCCD"/>
+        <bgColor rgb="00C2CCCD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1B7C7"/>
-        <bgColor rgb="00D1B7C7"/>
+        <fgColor rgb="00BDC1E2"/>
+        <bgColor rgb="00BDC1E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0D1D8"/>
-        <bgColor rgb="00C0D1D8"/>
+        <fgColor rgb="00C2C2E6"/>
+        <bgColor rgb="00C2C2E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4E3EB"/>
-        <bgColor rgb="00B4E3EB"/>
+        <fgColor rgb="00E3E9EB"/>
+        <bgColor rgb="00E3E9EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6D7C3"/>
-        <bgColor rgb="00D6D7C3"/>
+        <fgColor rgb="00E6E5B4"/>
+        <bgColor rgb="00E6E5B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CCDD"/>
-        <bgColor rgb="00D0CCDD"/>
+        <fgColor rgb="00DBB4BE"/>
+        <bgColor rgb="00DBB4BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9D7C3"/>
-        <bgColor rgb="00B9D7C3"/>
+        <fgColor rgb="00C8E6D7"/>
+        <bgColor rgb="00C8E6D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9E9C1"/>
-        <bgColor rgb="00D9E9C1"/>
+        <fgColor rgb="00C8E4BA"/>
+        <bgColor rgb="00C8E4BA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBCEEB"/>
-        <bgColor rgb="00CBCEEB"/>
+        <fgColor rgb="00CBBAEB"/>
+        <bgColor rgb="00CBBAEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDC7BF"/>
-        <bgColor rgb="00DDC7BF"/>
+        <fgColor rgb="00C0C8BE"/>
+        <bgColor rgb="00C0C8BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDC5EE"/>
-        <bgColor rgb="00CDC5EE"/>
+        <fgColor rgb="00E6BBDC"/>
+        <bgColor rgb="00E6BBDC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E9E2"/>
-        <bgColor rgb="00B9E9E2"/>
+        <fgColor rgb="00BEC2D8"/>
+        <bgColor rgb="00BEC2D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0B8E1"/>
-        <bgColor rgb="00C0B8E1"/>
+        <fgColor rgb="00C3E8B7"/>
+        <bgColor rgb="00C3E8B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1D0C4"/>
-        <bgColor rgb="00D1D0C4"/>
+        <fgColor rgb="00C9B9BC"/>
+        <bgColor rgb="00C9B9BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5B9DE"/>
-        <bgColor rgb="00D5B9DE"/>
+        <fgColor rgb="00C2C3E8"/>
+        <bgColor rgb="00C2C3E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6CEBF"/>
-        <bgColor rgb="00D6CEBF"/>
+        <fgColor rgb="00E5B5C3"/>
+        <bgColor rgb="00E5B5C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8EFD0"/>
-        <bgColor rgb="00B8EFD0"/>
+        <fgColor rgb="00D4CDD6"/>
+        <bgColor rgb="00D4CDD6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD5E4"/>
-        <bgColor rgb="00BDD5E4"/>
+        <fgColor rgb="00CEC0D2"/>
+        <bgColor rgb="00CEC0D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDC3B6"/>
-        <bgColor rgb="00EDC3B6"/>
+        <fgColor rgb="00DFEDCD"/>
+        <bgColor rgb="00DFEDCD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5C7CB"/>
-        <bgColor rgb="00B5C7CB"/>
+        <fgColor rgb="00BCC2C2"/>
+        <bgColor rgb="00BCC2C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFD3D2"/>
-        <bgColor rgb="00BFD3D2"/>
+        <fgColor rgb="00E6E8D6"/>
+        <bgColor rgb="00E6E8D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6E1E2"/>
-        <bgColor rgb="00D6E1E2"/>
+        <fgColor rgb="00D4EECF"/>
+        <bgColor rgb="00D4EECF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4E4D2"/>
-        <bgColor rgb="00E4E4D2"/>
+        <fgColor rgb="00EED4E3"/>
+        <bgColor rgb="00EED4E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6DEDE"/>
-        <bgColor rgb="00D6DEDE"/>
+        <fgColor rgb="00E9B5BE"/>
+        <bgColor rgb="00E9B5BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9C8BB"/>
-        <bgColor rgb="00D9C8BB"/>
+        <fgColor rgb="00BBD7CA"/>
+        <bgColor rgb="00BBD7CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3CED7"/>
-        <bgColor rgb="00D3CED7"/>
+        <fgColor rgb="00BCD1F0"/>
+        <bgColor rgb="00BCD1F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD3E6"/>
-        <bgColor rgb="00EAD3E6"/>
+        <fgColor rgb="00CFE0D0"/>
+        <bgColor rgb="00CFE0D0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1197,7 +1197,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -1421,7 +1421,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -1518,7 +1518,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="AA5" s="5" t="n"/>
@@ -2052,7 +2052,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -2158,7 +2158,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -2199,7 +2199,7 @@
           <t>Statistics for CS
 (Tutorial)
 Pavan Kumar
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="W3" s="5" t="n"/>
@@ -2244,7 +2244,7 @@
           <t>Computer Networks
 (Lecture)
 Dibyajyothi
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -2275,7 +2275,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -2292,7 +2292,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -2360,7 +2360,7 @@
           <t>Computer Networks
 (Lecture)
 Dibyajyothi
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="n"/>
@@ -2391,7 +2391,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -2476,7 +2476,7 @@
           <t>Computer Networks
 (Tutorial)
 Dibyajyothi
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -2518,7 +2518,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -2600,7 +2600,7 @@
           <t>Statistics for CS
 (Lecture)
 Pavan Kumar
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AN6" s="5" t="n"/>
@@ -3044,7 +3044,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -3150,7 +3150,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -3236,7 +3236,7 @@
           <t>Computer Networks
 (Lecture)
 Animesh Roy
-C102</t>
+C202</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -3267,7 +3267,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -3284,7 +3284,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -3383,7 +3383,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -3510,7 +3510,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -4036,7 +4036,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -4142,7 +4142,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -4228,7 +4228,7 @@
           <t>Computer Networks
 (Lecture)
 Dibyajyothi
-C104</t>
+C203</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -4259,7 +4259,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -4276,7 +4276,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -4375,7 +4375,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -4502,7 +4502,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -5028,7 +5028,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C204</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -5048,7 +5048,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -5076,7 +5076,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -5133,7 +5133,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -5153,7 +5153,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -5238,7 +5238,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -5276,7 +5276,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -5293,7 +5293,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C407</t>
+C302</t>
         </is>
       </c>
       <c r="AH4" s="5" t="n"/>
@@ -5343,7 +5343,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -5363,7 +5363,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -5458,7 +5458,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -5478,7 +5478,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -5977,7 +5977,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C204</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -5997,7 +5997,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -6025,7 +6025,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -6082,7 +6082,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -6102,7 +6102,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -6187,7 +6187,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -6225,7 +6225,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -6242,7 +6242,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C407</t>
+C302</t>
         </is>
       </c>
       <c r="AH4" s="5" t="n"/>
@@ -6292,7 +6292,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -6312,7 +6312,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -6407,7 +6407,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -6427,7 +6427,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -6926,7 +6926,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C204</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -6946,7 +6946,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -6974,7 +6974,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -7031,7 +7031,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -7051,7 +7051,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -7136,7 +7136,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -7174,7 +7174,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -7191,7 +7191,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C407</t>
+C302</t>
         </is>
       </c>
       <c r="AH4" s="5" t="n"/>
@@ -7241,7 +7241,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -7261,7 +7261,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -7356,7 +7356,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -7376,7 +7376,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -7875,7 +7875,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C204</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -7895,7 +7895,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -7923,7 +7923,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -7980,7 +7980,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -8000,7 +8000,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -8085,7 +8085,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -8123,7 +8123,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -8140,7 +8140,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C407</t>
+C302</t>
         </is>
       </c>
       <c r="AH4" s="5" t="n"/>
@@ -8190,7 +8190,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -8210,7 +8210,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -8305,7 +8305,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -8325,7 +8325,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -8864,7 +8864,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -8912,7 +8912,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Animesh Roy
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -8936,7 +8936,7 @@
           <t>Statistics
 (Tutorial)
 Ramesh Athe
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="P3" s="5" t="n"/>
@@ -8962,7 +8962,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -9010,7 +9010,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Animesh Roy
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -9031,7 +9031,7 @@
           <t>Introduction to DSAI
 (Lecture)
 Abdul Wahid
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="M4" s="5" t="n"/>
@@ -9059,7 +9059,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -9107,7 +9107,7 @@
           <t>Statistics
 (Lecture)
 Ramesh Athe
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -9128,7 +9128,7 @@
           <t>Introduction to DSAI
 (Lecture)
 Abdul Wahid
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -9194,7 +9194,7 @@
           <t>Statistics
 (Lecture)
 Ramesh Athe
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -9215,7 +9215,7 @@
           <t>Introduction to DSAI
 (Tutorial)
 Abdul Wahid
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -9243,7 +9243,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AA6" s="5" t="n"/>
@@ -9726,7 +9726,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AA2" s="5" t="n"/>
@@ -9911,7 +9911,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -9980,7 +9980,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Animesh Roy
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -10067,7 +10067,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Animesh Roy
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -10569,7 +10569,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AD2" s="5" t="n"/>
@@ -10635,7 +10635,7 @@
           <t>Machine Learning
 (Lecture)
 Utkarsh K
-C405</t>
+C204</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -10667,7 +10667,7 @@
           <t>Artificial Intelligence
 (Tutorial)
 Animesh Chaturvedi
-C405</t>
+C204</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -10730,7 +10730,7 @@
           <t>Data Handling
 (Lecture)
 Siddharth
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -10765,7 +10765,7 @@
           <t>Artificial Intelligence
 (Lecture)
 Animesh Chaturvedi
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -10834,7 +10834,7 @@
           <t>Artificial Intelligence
 (Lecture)
 Animesh Chaturvedi
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="P5" s="5" t="n"/>
@@ -10897,7 +10897,7 @@
           <t>Data Handling
 (Lecture)
 Siddharth
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -10918,7 +10918,7 @@
           <t>Machine Learning
 (Lecture)
 Utkarsh K
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -10949,7 +10949,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -11626,7 +11626,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -12279,7 +12279,7 @@
           <t>Machine Learning
 (Lecture)
 Utkarsh K
-C104</t>
+C303</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -12380,7 +12380,7 @@
           <t>Statistical Programming
 (Tutorial)
 Ramesh Athe
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="P3" s="5" t="n"/>
@@ -12433,7 +12433,7 @@
           <t>Artificial Intelligence
 (Tutorial)
 Animesh Chaturvedi
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -12483,7 +12483,7 @@
           <t>Data Handling
 (Lecture)
 Siddharth
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -12503,7 +12503,7 @@
         <is>
           <t>Elective (B)
 (Elective)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="T4" s="5" t="n"/>
@@ -12528,7 +12528,7 @@
           <t>Artificial Intelligence
 (Lecture)
 Animesh Chaturvedi
-C404</t>
+C203</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -12573,7 +12573,7 @@
           <t>Artificial Intelligence
 (Lecture)
 Animesh Chaturvedi
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -12670,7 +12670,7 @@
           <t>Data Handling
 (Lecture)
 Siddharth
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -12722,7 +12722,7 @@
           <t>Machine Learning
 (Lecture)
 Utkarsh K
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -13341,7 +13341,7 @@
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -13406,7 +13406,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="Q4" s="5" t="n"/>
@@ -13457,7 +13457,7 @@
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="n"/>
@@ -13508,7 +13508,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C406</t>
+C302</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -13525,7 +13525,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="T5" s="5" t="n"/>
@@ -13573,7 +13573,7 @@
           <t>Computer Communication
 (Tutorial)
 Shirshendu Layek
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -13591,7 +13591,7 @@
           <t>Algorithms and Data Structures
 (Tutorial)
 Animesh Chaturvedi
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AX5" s="5" t="n"/>
@@ -14286,7 +14286,7 @@
           <t>Algorithms and Data Structures
 (Tutorial)
 Animesh Chaturvedi
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="W3" s="5" t="n"/>
@@ -14331,7 +14331,7 @@
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C405</t>
+C204</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -14447,7 +14447,7 @@
           <t>Computer Communication
 (Lecture)
 Shirshendu Layek
-C403</t>
+C203</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="n"/>
@@ -14498,7 +14498,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -14515,7 +14515,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="T5" s="5" t="n"/>
@@ -14563,7 +14563,7 @@
           <t>Computer Communication
 (Tutorial)
 Shirshendu Layek
-C403</t>
+C203</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -15183,7 +15183,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AH2" s="5" t="n"/>
@@ -15271,7 +15271,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -15288,7 +15288,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AH3" s="5" t="n"/>
@@ -15403,7 +15403,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AR4" s="5" t="n"/>
@@ -15481,7 +15481,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AA5" s="5" t="n"/>
@@ -15501,7 +15501,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AK5" s="5" t="n"/>
@@ -15521,7 +15521,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AU5" s="5" t="n"/>
@@ -15596,7 +15596,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C406</t>
+C204</t>
         </is>
       </c>
       <c r="AA6" s="5" t="n"/>
@@ -15616,7 +15616,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AK6" s="5" t="n"/>
@@ -15636,7 +15636,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AU6" s="5" t="n"/>
@@ -16132,7 +16132,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AH2" s="5" t="n"/>
@@ -16220,7 +16220,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AA3" s="5" t="n"/>
@@ -16237,7 +16237,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AH3" s="5" t="n"/>
@@ -16352,7 +16352,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AR4" s="5" t="n"/>
@@ -16430,7 +16430,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AA5" s="5" t="n"/>
@@ -16450,7 +16450,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AK5" s="5" t="n"/>
@@ -16470,7 +16470,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AU5" s="5" t="n"/>
@@ -16545,7 +16545,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C406</t>
+C204</t>
         </is>
       </c>
       <c r="AA6" s="5" t="n"/>
@@ -16565,7 +16565,7 @@
         <is>
           <t>Basket (C)
 (Basket)
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AK6" s="5" t="n"/>
@@ -16585,7 +16585,7 @@
         <is>
           <t>Basket (D)
 (Basket)
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AU6" s="5" t="n"/>
@@ -17038,7 +17038,7 @@
           <t>Introduction to DSAI
 (Lecture)
 Girish Revadigar
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -17125,7 +17125,7 @@
           <t>Introduction to DSAI
 (Lecture)
 Girish Revadigar
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -17209,7 +17209,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Manjunath
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -17241,7 +17241,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -17328,7 +17328,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AA5" s="5" t="n"/>
@@ -17376,7 +17376,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Manjunath
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -17397,7 +17397,7 @@
           <t>Introduction to DSAI
 (Tutorial)
 Girish Revadigar
-C404</t>
+C104</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -17845,7 +17845,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -18029,7 +18029,7 @@
           <t>Economics/IET
 (Lecture)
 Anushree Kini
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -18127,7 +18127,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Manjunath
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -18214,7 +18214,7 @@
           <t>Problem Solving with Python
 (Lecture)
 Manjunath
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -18738,7 +18738,7 @@
           <t>Signals &amp; Systems
 (Lecture)
 Somen B
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD2" s="5" t="n"/>
@@ -18758,7 +18758,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AN2" s="5" t="n"/>
@@ -18793,7 +18793,7 @@
           <t>Analog Electronics
 (Lecture)
 Rajesh Kumar
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -18845,7 +18845,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -18866,7 +18866,7 @@
           <t>Machine Learning
 (Lecture)
 Deepak K T
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AN3" s="5" t="n"/>
@@ -18901,7 +18901,7 @@
           <t>Semiconductor Devices
 (Lecture)
 Pankaj Kumar
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -18939,7 +18939,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="T4" s="5" t="n"/>
@@ -18963,7 +18963,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -18984,7 +18984,7 @@
           <t>Machine Learning
 (Lecture)
 Deepak K T
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AN4" s="5" t="n"/>
@@ -19043,7 +19043,7 @@
           <t>Signals &amp; Systems
 (Tutorial)
 Somen B
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="P5" s="5" t="n"/>
@@ -19094,7 +19094,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -19126,7 +19126,7 @@
           <t>Semiconductor Devices
 (Lecture)
 Pankaj Kumar
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -19147,7 +19147,7 @@
           <t>Analog Electronics
 (Lecture)
 Rajesh Kumar
-C406</t>
+C203</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -19179,7 +19179,7 @@
           <t>Signals &amp; Systems
 (Lecture)
 Somen B
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -19200,7 +19200,7 @@
           <t>Machine Learning
 (Tutorial)
 Deepak K T
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AN6" s="5" t="n"/>
@@ -19217,7 +19217,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AU6" s="5" t="n"/>
@@ -19649,7 +19649,7 @@
           <t>Machine Learning
 (Lecture)
 Deepak K T
-C404</t>
+C104</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -19712,7 +19712,7 @@
           <t>Random Processes
 (Lecture)
 Chinmayananda
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AN2" s="5" t="n"/>
@@ -19747,7 +19747,7 @@
           <t>Machine Learning
 (Lecture)
 Deepak K T
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -19810,7 +19810,7 @@
           <t>Random Processes
 (Lecture)
 Chinmayananda
-C404</t>
+C104</t>
         </is>
       </c>
       <c r="AN3" s="5" t="n"/>
@@ -19897,7 +19897,7 @@
           <t>Signals &amp; Systems
 (Lecture)
 Somen B
-C405</t>
+C204</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -19942,7 +19942,7 @@
           <t>Random Processes
 (Tutorial)
 Chinmayananda
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -19994,7 +19994,7 @@
           <t>Signals &amp; Systems
 (Tutorial)
 Somen B
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AD5" s="5" t="n"/>
@@ -20039,7 +20039,7 @@
           <t>Signals &amp; Systems
 (Lecture)
 Somen B
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -20091,7 +20091,7 @@
           <t>Machine Learning
 (Tutorial)
 Deepak K T
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -20566,7 +20566,7 @@
           <t>Introduction to Algorithms
 (Tutorial)
 Jagdish R.B
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="W2" s="5" t="n"/>
@@ -20683,7 +20683,7 @@
           <t>Introduction to VLSI Design
 (Tutorial)
 Jagadish D.N
-C404</t>
+C203</t>
         </is>
       </c>
       <c r="W3" s="5" t="n"/>
@@ -20707,7 +20707,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AG3" s="5" t="n"/>
@@ -20728,7 +20728,7 @@
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -20823,7 +20823,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C303</t>
         </is>
       </c>
       <c r="AG4" s="5" t="n"/>
@@ -20844,7 +20844,7 @@
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="n"/>
@@ -20939,7 +20939,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C404</t>
+C203</t>
         </is>
       </c>
       <c r="AG5" s="5" t="n"/>
@@ -20960,7 +20960,7 @@
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -21055,7 +21055,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C204</t>
         </is>
       </c>
       <c r="AG6" s="5" t="n"/>
@@ -21073,7 +21073,7 @@
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AN6" s="5" t="n"/>
@@ -21538,7 +21538,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -22398,7 +22398,7 @@
           <t>Introduction to Algorithms
 (Tutorial)
 Jagdish R.B
-C404</t>
+C104</t>
         </is>
       </c>
       <c r="W2" s="5" t="n"/>
@@ -22422,7 +22422,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AG2" s="5" t="n"/>
@@ -22515,7 +22515,7 @@
           <t>Introduction to VLSI Design
 (Tutorial)
 Jagadish D.N
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="W3" s="5" t="n"/>
@@ -22560,7 +22560,7 @@
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -22655,7 +22655,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AG4" s="5" t="n"/>
@@ -22676,7 +22676,7 @@
           <t>Digital Signal Processing
 (Lecture)
 Sibasankar Padhy
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="n"/>
@@ -22771,7 +22771,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AG5" s="5" t="n"/>
@@ -22792,7 +22792,7 @@
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -22887,7 +22887,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AG6" s="5" t="n"/>
@@ -22905,7 +22905,7 @@
           <t>Introduction to VLSI Design
 (Lecture)
 Jagadish D.N
-C403</t>
+C203</t>
         </is>
       </c>
       <c r="AN6" s="5" t="n"/>
@@ -25346,7 +25346,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -26187,7 +26187,7 @@
           <t>Software Design
 (Lecture)
 Sunil P V
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -26219,7 +26219,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 Malay
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="AD2" s="5" t="n"/>
@@ -26295,7 +26295,7 @@
           <t>Computer Networks
 (Lecture)
 Prabhu Prasad B M
-C202</t>
+C205</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -26327,7 +26327,7 @@
           <t>Software Design
 (Lecture)
 Sunil P V
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -26425,7 +26425,7 @@
           <t>Computer Networks
 (Lecture)
 Prabhu Prasad B M
-C104</t>
+C204</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -26491,7 +26491,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 Malay
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -26523,7 +26523,7 @@
           <t>Software Design
 (Tutorial)
 Sunil P V
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD5" s="5" t="n"/>
@@ -26631,7 +26631,7 @@
           <t>Computer Networks
 (Tutorial)
 Prabhu Prasad B M
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD6" s="5" t="n"/>
@@ -27091,7 +27091,7 @@
           <t>Software Design
 (Lecture)
 Vivekraj
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -27123,7 +27123,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 Pramod
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD2" s="5" t="n"/>
@@ -27189,7 +27189,7 @@
           <t>Software Design
 (Lecture)
 Vivekraj
-C104</t>
+C203</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -27221,7 +27221,7 @@
           <t>Computer Networks
 (Lecture)
 Prabhu Prasad B M
-C104</t>
+C203</t>
         </is>
       </c>
       <c r="AD3" s="5" t="n"/>
@@ -27241,7 +27241,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AN3" s="5" t="n"/>
@@ -27328,7 +27328,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C202</t>
+C302</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -27405,7 +27405,7 @@
           <t>Software Design
 (Tutorial)
 Vivekraj
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -27437,7 +27437,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 Pramod
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AD5" s="5" t="n"/>
@@ -27998,7 +27998,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 Malay
-C102</t>
+C302</t>
         </is>
       </c>
       <c r="P2" s="5" t="n"/>
@@ -28210,7 +28210,7 @@
           <t>Software Design
 (Lecture)
 Sunil P V
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -28255,7 +28255,7 @@
           <t>Operating Systems
 (Lecture)
 Suvadip Hazra
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -28320,7 +28320,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -28428,7 +28428,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -28916,7 +28916,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 Pramod
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -28937,7 +28937,7 @@
           <t>Computer Networks
 (Lecture)
 Prabhu Prasad B M
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M2" s="5" t="n"/>
@@ -29141,7 +29141,7 @@
           <t>Software Design
 (Lecture)
 Vivekraj
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -29186,7 +29186,7 @@
           <t>Computer Networks
 (Tutorial)
 Prabhu Prasad B M
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AD4" s="5" t="n"/>
@@ -29262,7 +29262,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M5" s="5" t="n"/>
@@ -29370,7 +29370,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M6" s="5" t="n"/>
@@ -29857,7 +29857,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
@@ -29963,7 +29963,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -30004,7 +30004,7 @@
           <t>Artificial Intelligence
 (Tutorial)
 Krishnendu
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="W3" s="5" t="n"/>
@@ -30049,7 +30049,7 @@
           <t>Computer Networks
 (Lecture)
 Animesh Roy
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AQ3" s="5" t="n"/>
@@ -30080,7 +30080,7 @@
         <is>
           <t>Basket (A)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -30097,7 +30097,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -30165,7 +30165,7 @@
           <t>Computer Networks
 (Lecture)
 Animesh Roy
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="n"/>
@@ -30196,7 +30196,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -30281,7 +30281,7 @@
           <t>Computer Networks
 (Tutorial)
 Animesh Roy
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="n"/>
@@ -30323,7 +30323,7 @@
         <is>
           <t>Basket (B)
 (Basket)
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -30405,7 +30405,7 @@
           <t>Statistics for CS
 (Lecture)
 Sunil C K
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AN6" s="5" t="n"/>

--- a/output/Department_Timetables.xlsx
+++ b/output/Department_Timetables.xlsx
@@ -91,8 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BED5BE"/>
-        <bgColor rgb="00BED5BE"/>
+        <fgColor rgb="00E5C6D2"/>
+        <bgColor rgb="00E5C6D2"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBC8EC"/>
-        <bgColor rgb="00CBC8EC"/>
+        <fgColor rgb="00CBEFE5"/>
+        <bgColor rgb="00CBEFE5"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,200 +115,200 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4E1CC"/>
-        <bgColor rgb="00E4E1CC"/>
+        <fgColor rgb="00B4BFDF"/>
+        <bgColor rgb="00B4BFDF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6CBCA"/>
-        <bgColor rgb="00E6CBCA"/>
+        <fgColor rgb="00DDEFBA"/>
+        <bgColor rgb="00DDEFBA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BEBEE1"/>
-        <bgColor rgb="00BEBEE1"/>
+        <fgColor rgb="00CAC7F0"/>
+        <bgColor rgb="00CAC7F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8E1D4"/>
-        <bgColor rgb="00D8E1D4"/>
+        <fgColor rgb="00CDD1E1"/>
+        <bgColor rgb="00CDD1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4D3E7"/>
-        <bgColor rgb="00C4D3E7"/>
+        <fgColor rgb="00BECBDE"/>
+        <bgColor rgb="00BECBDE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4EFE8"/>
-        <bgColor rgb="00B4EFE8"/>
+        <fgColor rgb="00EBDBE9"/>
+        <bgColor rgb="00EBDBE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C2CCCD"/>
-        <bgColor rgb="00C2CCCD"/>
+        <fgColor rgb="00E1DDC4"/>
+        <bgColor rgb="00E1DDC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDC1E2"/>
-        <bgColor rgb="00BDC1E2"/>
+        <fgColor rgb="00D8DCBC"/>
+        <bgColor rgb="00D8DCBC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C2C2E6"/>
-        <bgColor rgb="00C2C2E6"/>
+        <fgColor rgb="00C7D8E5"/>
+        <bgColor rgb="00C7D8E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3E9EB"/>
-        <bgColor rgb="00E3E9EB"/>
+        <fgColor rgb="00C5BCEB"/>
+        <bgColor rgb="00C5BCEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E5B4"/>
-        <bgColor rgb="00E6E5B4"/>
+        <fgColor rgb="00EFEBE4"/>
+        <bgColor rgb="00EFEBE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DBB4BE"/>
-        <bgColor rgb="00DBB4BE"/>
+        <fgColor rgb="00CDB5C2"/>
+        <bgColor rgb="00CDB5C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8E6D7"/>
-        <bgColor rgb="00C8E6D7"/>
+        <fgColor rgb="00C1E5E7"/>
+        <bgColor rgb="00C1E5E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8E4BA"/>
-        <bgColor rgb="00C8E4BA"/>
+        <fgColor rgb="00E5EFBE"/>
+        <bgColor rgb="00E5EFBE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBBAEB"/>
-        <bgColor rgb="00CBBAEB"/>
+        <fgColor rgb="00DDDCC6"/>
+        <bgColor rgb="00DDDCC6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C8BE"/>
-        <bgColor rgb="00C0C8BE"/>
+        <fgColor rgb="00C8CAB4"/>
+        <bgColor rgb="00C8CAB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6BBDC"/>
-        <bgColor rgb="00E6BBDC"/>
+        <fgColor rgb="00DAE8CA"/>
+        <bgColor rgb="00DAE8CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BEC2D8"/>
-        <bgColor rgb="00BEC2D8"/>
+        <fgColor rgb="00F0E6D5"/>
+        <bgColor rgb="00F0E6D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3E8B7"/>
-        <bgColor rgb="00C3E8B7"/>
+        <fgColor rgb="00BBB7D8"/>
+        <bgColor rgb="00BBB7D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C9B9BC"/>
-        <bgColor rgb="00C9B9BC"/>
+        <fgColor rgb="00BAE2B8"/>
+        <bgColor rgb="00BAE2B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C2C3E8"/>
-        <bgColor rgb="00C2C3E8"/>
+        <fgColor rgb="00BACACC"/>
+        <bgColor rgb="00BACACC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5B5C3"/>
-        <bgColor rgb="00E5B5C3"/>
+        <fgColor rgb="00C4EFBF"/>
+        <bgColor rgb="00C4EFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4CDD6"/>
-        <bgColor rgb="00D4CDD6"/>
+        <fgColor rgb="00DAD1E9"/>
+        <bgColor rgb="00DAD1E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEC0D2"/>
-        <bgColor rgb="00CEC0D2"/>
+        <fgColor rgb="00E1B8EE"/>
+        <bgColor rgb="00E1B8EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFEDCD"/>
-        <bgColor rgb="00DFEDCD"/>
+        <fgColor rgb="00DEE5BE"/>
+        <bgColor rgb="00DEE5BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCC2C2"/>
-        <bgColor rgb="00BCC2C2"/>
+        <fgColor rgb="00CDC1DC"/>
+        <bgColor rgb="00CDC1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E8D6"/>
-        <bgColor rgb="00E6E8D6"/>
+        <fgColor rgb="00DFDDB9"/>
+        <bgColor rgb="00DFDDB9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EECF"/>
-        <bgColor rgb="00D4EECF"/>
+        <fgColor rgb="00D6BFD8"/>
+        <bgColor rgb="00D6BFD8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EED4E3"/>
-        <bgColor rgb="00EED4E3"/>
+        <fgColor rgb="00DDE0EF"/>
+        <bgColor rgb="00DDE0EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9B5BE"/>
-        <bgColor rgb="00E9B5BE"/>
+        <fgColor rgb="00CCBFEE"/>
+        <bgColor rgb="00CCBFEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBD7CA"/>
-        <bgColor rgb="00BBD7CA"/>
+        <fgColor rgb="00E9C8C3"/>
+        <bgColor rgb="00E9C8C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCD1F0"/>
-        <bgColor rgb="00BCD1F0"/>
+        <fgColor rgb="00B8D7EA"/>
+        <bgColor rgb="00B8D7EA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFE0D0"/>
-        <bgColor rgb="00CFE0D0"/>
+        <fgColor rgb="00D1E6D4"/>
+        <bgColor rgb="00D1E6D4"/>
       </patternFill>
     </fill>
   </fills>
